--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1750" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06812A5E-1A03-41C1-89C8-000F21B0A417}"/>
+  <xr:revisionPtr revIDLastSave="1752" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E5AB80-2151-4495-8478-C95B75834D96}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{76ACBFB2-FDB9-4F29-83E0-3CEBBBD05A87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{76ACBFB2-FDB9-4F29-83E0-3CEBBBD05A87}"/>
   </bookViews>
   <sheets>
     <sheet name="guide" sheetId="2" r:id="rId1"/>
@@ -6992,9 +6992,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I2902"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2849" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2914" sqref="J2914"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A863" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2903" sqref="H2903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26028,7 +26028,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="863" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1331</v>
       </c>
@@ -26047,7 +26047,7 @@
       <c r="F863"/>
       <c r="G863"/>
       <c r="H863" t="s">
-        <v>1314</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="864" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -77665,7 +77665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2849" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2849" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2849" t="str">
         <f t="shared" si="33"/>
         <v>c_bp_impulse_total_can_440_single</v>
@@ -78909,7 +78909,7 @@
   <autoFilter ref="A1:I2902" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
     <filterColumn colId="0">
       <filters>
-        <filter val="c_bp_impulse_total_can_440_single"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -78920,6 +78920,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2B45C0EA743584A8108406922405CD9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28eea7f25acf351aeb308c66c2a0cc34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f859e2c-e6b3-43fd-84f3-2e79f1815da7" xmlns:ns3="af2a5c73-a52b-4877-934f-731a7896a6a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c229cfe8c0dd97038f86cb311aeef9c" ns2:_="" ns3:_="">
     <xsd:import namespace="3f859e2c-e6b3-43fd-84f3-2e79f1815da7"/>
@@ -79096,22 +79111,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BDD481-501C-4200-9B28-7D89CE3D9024}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -79128,21 +79145,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1838" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E268B2EA-5F37-4893-945F-61860D62A55F}"/>
+  <xr:revisionPtr revIDLastSave="1886" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49103BA5-425D-423D-A70A-B2E979D6B74B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{76ACBFB2-FDB9-4F29-83E0-3CEBBBD05A87}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="taxonomy" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">taxonomy!$A$1:$I$2915</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">taxonomy!$A$1:$I$2917</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18490" uniqueCount="2149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18501" uniqueCount="2153">
   <si>
     <t>variable_name</t>
   </si>
@@ -6088,9 +6088,6 @@
     <t>ooh_asahi_</t>
   </si>
   <si>
-    <t>dummy_trend</t>
-  </si>
-  <si>
     <t>trend</t>
   </si>
   <si>
@@ -6545,6 +6542,21 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>pna0_launch</t>
+  </si>
+  <si>
+    <t>Launch of PNA0</t>
+  </si>
+  <si>
+    <t>third_lockdown_decay</t>
+  </si>
+  <si>
+    <t>covid 3rd lockdown decayed</t>
+  </si>
+  <si>
+    <t>actuals</t>
   </si>
 </sst>
 </file>
@@ -7005,11 +7017,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I2915"/>
+  <dimension ref="A1:I2918"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2921" sqref="I2921"/>
+      <pane ySplit="1" topLeftCell="A921" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2919" sqref="H2919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25306,7 +25318,7 @@
       <c r="F827"/>
       <c r="G827"/>
       <c r="H827" t="s">
-        <v>1278</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="828" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -26719,10 +26731,10 @@
         <v>1348</v>
       </c>
       <c r="D892" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E892" t="s">
         <v>2111</v>
-      </c>
-      <c r="E892" t="s">
-        <v>2112</v>
       </c>
       <c r="F892"/>
       <c r="G892"/>
@@ -27055,10 +27067,10 @@
         <v>1369</v>
       </c>
       <c r="D906" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E906" t="s">
         <v>2111</v>
-      </c>
-      <c r="E906" t="s">
-        <v>2112</v>
       </c>
       <c r="F906"/>
       <c r="G906"/>
@@ -27391,10 +27403,10 @@
         <v>1372</v>
       </c>
       <c r="D920" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E920" t="s">
         <v>2111</v>
-      </c>
-      <c r="E920" t="s">
-        <v>2112</v>
       </c>
       <c r="F920"/>
       <c r="G920"/>
@@ -27403,7 +27415,7 @@
       </c>
       <c r="I920"/>
     </row>
-    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>1374</v>
       </c>
@@ -32715,8 +32727,9 @@
       </c>
     </row>
     <row r="1165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1165" t="s">
-        <v>1996</v>
+      <c r="A1165" t="str">
+        <f t="shared" si="5"/>
+        <v>dummy_trend</v>
       </c>
       <c r="B1165" t="s">
         <v>1536</v>
@@ -32725,10 +32738,10 @@
         <v>1537</v>
       </c>
       <c r="D1165" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1165" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H1165" t="s">
         <v>1375</v>
@@ -32923,7 +32936,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="1175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1175" t="str">
         <f t="shared" si="5"/>
         <v>e_unemployment</v>
@@ -33766,7 +33779,7 @@
         <v>1910</v>
       </c>
       <c r="E1214" s="3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1214" s="3" t="s">
         <v>1381</v>
@@ -33793,7 +33806,7 @@
         <v>1910</v>
       </c>
       <c r="E1215" s="3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1215" s="3" t="s">
         <v>1642</v>
@@ -35005,10 +35018,10 @@
         <v>1377</v>
       </c>
       <c r="D1260" s="3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1260" s="3" t="s">
         <v>1998</v>
-      </c>
-      <c r="E1260" s="3" t="s">
-        <v>1999</v>
       </c>
       <c r="F1260" s="3" t="s">
         <v>1668</v>
@@ -35017,7 +35030,7 @@
         <v>1643</v>
       </c>
       <c r="H1260" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -35032,10 +35045,10 @@
         <v>1377</v>
       </c>
       <c r="D1261" s="3" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1261" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1261" s="3" t="s">
         <v>1379</v>
@@ -35044,7 +35057,7 @@
         <v>1380</v>
       </c>
       <c r="H1261" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -35059,10 +35072,10 @@
         <v>1377</v>
       </c>
       <c r="D1262" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E1262" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1262" s="3" t="s">
         <v>1381</v>
@@ -35071,7 +35084,7 @@
         <v>1382</v>
       </c>
       <c r="H1262" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -35410,10 +35423,10 @@
         <v>1377</v>
       </c>
       <c r="D1275" s="3" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E1275" s="3" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F1275" s="3" t="s">
         <v>1381</v>
@@ -35422,7 +35435,7 @@
         <v>1382</v>
       </c>
       <c r="H1275" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -35437,10 +35450,10 @@
         <v>1377</v>
       </c>
       <c r="D1276" s="3" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E1276" s="3" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F1276" s="3" t="s">
         <v>1671</v>
@@ -35449,7 +35462,7 @@
         <v>1672</v>
       </c>
       <c r="H1276" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -35467,7 +35480,7 @@
         <v>1677</v>
       </c>
       <c r="E1277" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F1277" s="3" t="s">
         <v>1381</v>
@@ -35494,7 +35507,7 @@
         <v>1677</v>
       </c>
       <c r="E1278" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F1278" s="3" t="s">
         <v>1671</v>
@@ -35521,7 +35534,7 @@
         <v>1678</v>
       </c>
       <c r="E1279" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F1279" s="3" t="s">
         <v>1381</v>
@@ -35548,7 +35561,7 @@
         <v>1678</v>
       </c>
       <c r="E1280" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F1280" s="3" t="s">
         <v>1671</v>
@@ -35572,10 +35585,10 @@
         <v>1377</v>
       </c>
       <c r="D1281" s="3" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E1281" s="3" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1281" s="3" t="s">
         <v>1381</v>
@@ -35584,7 +35597,7 @@
         <v>1382</v>
       </c>
       <c r="H1281" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -35599,10 +35612,10 @@
         <v>1377</v>
       </c>
       <c r="D1282" s="3" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E1282" s="3" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1282" s="3" t="s">
         <v>1671</v>
@@ -35611,7 +35624,7 @@
         <v>1672</v>
       </c>
       <c r="H1282" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -36069,7 +36082,7 @@
         <v>1380</v>
       </c>
       <c r="H1299" s="3" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -36384,7 +36397,7 @@
         <v>1692</v>
       </c>
       <c r="E1311" s="3" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F1311" s="3" t="s">
         <v>1379</v>
@@ -36411,7 +36424,7 @@
         <v>1692</v>
       </c>
       <c r="E1312" s="3" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F1312" s="3" t="s">
         <v>1381</v>
@@ -36771,7 +36784,7 @@
         <v>1382</v>
       </c>
       <c r="H1325" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -36798,7 +36811,7 @@
         <v>1382</v>
       </c>
       <c r="H1326" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -36825,7 +36838,7 @@
         <v>1382</v>
       </c>
       <c r="H1327" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -44240,7 +44253,7 @@
         <v>1910</v>
       </c>
       <c r="E1602" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1602" t="s">
         <v>1806</v>
@@ -44267,7 +44280,7 @@
         <v>1910</v>
       </c>
       <c r="E1603" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1603" t="s">
         <v>1808</v>
@@ -44294,7 +44307,7 @@
         <v>1910</v>
       </c>
       <c r="E1604" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1604" t="s">
         <v>1810</v>
@@ -44321,7 +44334,7 @@
         <v>1910</v>
       </c>
       <c r="E1605" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1605" t="s">
         <v>1812</v>
@@ -44348,7 +44361,7 @@
         <v>1910</v>
       </c>
       <c r="E1606" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1606" t="s">
         <v>1814</v>
@@ -44375,7 +44388,7 @@
         <v>1910</v>
       </c>
       <c r="E1607" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1607" t="s">
         <v>1816</v>
@@ -44402,7 +44415,7 @@
         <v>1910</v>
       </c>
       <c r="E1608" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1608" t="s">
         <v>1818</v>
@@ -44429,7 +44442,7 @@
         <v>1910</v>
       </c>
       <c r="E1609" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1609" t="s">
         <v>1820</v>
@@ -44456,7 +44469,7 @@
         <v>1910</v>
       </c>
       <c r="E1610" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1610" t="s">
         <v>1822</v>
@@ -44483,7 +44496,7 @@
         <v>1910</v>
       </c>
       <c r="E1611" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1611" t="s">
         <v>1824</v>
@@ -44510,7 +44523,7 @@
         <v>1910</v>
       </c>
       <c r="E1612" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1612" t="s">
         <v>1826</v>
@@ -44537,7 +44550,7 @@
         <v>1910</v>
       </c>
       <c r="E1613" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1613" t="s">
         <v>1828</v>
@@ -44564,7 +44577,7 @@
         <v>1910</v>
       </c>
       <c r="E1614" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1614" t="s">
         <v>1830</v>
@@ -44591,7 +44604,7 @@
         <v>1910</v>
       </c>
       <c r="E1615" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1615" t="s">
         <v>1832</v>
@@ -52931,10 +52944,10 @@
         <v>1377</v>
       </c>
       <c r="D1924" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1924" t="s">
         <v>1998</v>
-      </c>
-      <c r="E1924" t="s">
-        <v>1999</v>
       </c>
       <c r="F1924" t="s">
         <v>1848</v>
@@ -52943,7 +52956,7 @@
         <v>1821</v>
       </c>
       <c r="H1924" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1925" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -52958,10 +52971,10 @@
         <v>1377</v>
       </c>
       <c r="D1925" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1925" t="s">
         <v>1998</v>
-      </c>
-      <c r="E1925" t="s">
-        <v>1999</v>
       </c>
       <c r="F1925" t="s">
         <v>1849</v>
@@ -52970,7 +52983,7 @@
         <v>1823</v>
       </c>
       <c r="H1925" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1926" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -52985,10 +52998,10 @@
         <v>1377</v>
       </c>
       <c r="D1926" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1926" t="s">
         <v>1998</v>
-      </c>
-      <c r="E1926" t="s">
-        <v>1999</v>
       </c>
       <c r="F1926" t="s">
         <v>1850</v>
@@ -52997,7 +53010,7 @@
         <v>1825</v>
       </c>
       <c r="H1926" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1927" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53012,10 +53025,10 @@
         <v>1377</v>
       </c>
       <c r="D1927" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1927" t="s">
         <v>1998</v>
-      </c>
-      <c r="E1927" t="s">
-        <v>1999</v>
       </c>
       <c r="F1927" t="s">
         <v>1851</v>
@@ -53024,7 +53037,7 @@
         <v>1827</v>
       </c>
       <c r="H1927" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1928" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53039,10 +53052,10 @@
         <v>1377</v>
       </c>
       <c r="D1928" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1928" t="s">
         <v>1998</v>
-      </c>
-      <c r="E1928" t="s">
-        <v>1999</v>
       </c>
       <c r="F1928" t="s">
         <v>1852</v>
@@ -53051,7 +53064,7 @@
         <v>1829</v>
       </c>
       <c r="H1928" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1929" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53066,10 +53079,10 @@
         <v>1377</v>
       </c>
       <c r="D1929" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1929" t="s">
         <v>1998</v>
-      </c>
-      <c r="E1929" t="s">
-        <v>1999</v>
       </c>
       <c r="F1929" t="s">
         <v>1853</v>
@@ -53078,7 +53091,7 @@
         <v>1831</v>
       </c>
       <c r="H1929" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1930" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53093,10 +53106,10 @@
         <v>1377</v>
       </c>
       <c r="D1930" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1930" t="s">
         <v>1998</v>
-      </c>
-      <c r="E1930" t="s">
-        <v>1999</v>
       </c>
       <c r="F1930" t="s">
         <v>1854</v>
@@ -53105,7 +53118,7 @@
         <v>1833</v>
       </c>
       <c r="H1930" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1931" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53120,10 +53133,10 @@
         <v>1377</v>
       </c>
       <c r="D1931" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1931" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1931" t="s">
         <v>1792</v>
@@ -53132,7 +53145,7 @@
         <v>1793</v>
       </c>
       <c r="H1931" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1932" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53147,10 +53160,10 @@
         <v>1377</v>
       </c>
       <c r="D1932" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1932" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1932" t="s">
         <v>1794</v>
@@ -53159,7 +53172,7 @@
         <v>1795</v>
       </c>
       <c r="H1932" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1933" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53174,10 +53187,10 @@
         <v>1377</v>
       </c>
       <c r="D1933" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1933" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1933" t="s">
         <v>1796</v>
@@ -53186,7 +53199,7 @@
         <v>1797</v>
       </c>
       <c r="H1933" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1934" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53201,10 +53214,10 @@
         <v>1377</v>
       </c>
       <c r="D1934" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1934" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1934" t="s">
         <v>1798</v>
@@ -53213,7 +53226,7 @@
         <v>1799</v>
       </c>
       <c r="H1934" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1935" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53228,10 +53241,10 @@
         <v>1377</v>
       </c>
       <c r="D1935" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1935" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1935" t="s">
         <v>1800</v>
@@ -53240,7 +53253,7 @@
         <v>1801</v>
       </c>
       <c r="H1935" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1936" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53255,10 +53268,10 @@
         <v>1377</v>
       </c>
       <c r="D1936" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1936" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1936" t="s">
         <v>1802</v>
@@ -53267,7 +53280,7 @@
         <v>1803</v>
       </c>
       <c r="H1936" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1937" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53282,10 +53295,10 @@
         <v>1377</v>
       </c>
       <c r="D1937" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1937" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1937" t="s">
         <v>1804</v>
@@ -53294,7 +53307,7 @@
         <v>1805</v>
       </c>
       <c r="H1937" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1938" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53309,10 +53322,10 @@
         <v>1377</v>
       </c>
       <c r="D1938" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1938" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1938" t="s">
         <v>1806</v>
@@ -53321,7 +53334,7 @@
         <v>1807</v>
       </c>
       <c r="H1938" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1939" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53336,10 +53349,10 @@
         <v>1377</v>
       </c>
       <c r="D1939" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1939" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1939" t="s">
         <v>1808</v>
@@ -53348,7 +53361,7 @@
         <v>1809</v>
       </c>
       <c r="H1939" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1940" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53363,10 +53376,10 @@
         <v>1377</v>
       </c>
       <c r="D1940" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1940" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1940" t="s">
         <v>1810</v>
@@ -53375,7 +53388,7 @@
         <v>1811</v>
       </c>
       <c r="H1940" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1941" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53390,10 +53403,10 @@
         <v>1377</v>
       </c>
       <c r="D1941" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1941" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1941" t="s">
         <v>1812</v>
@@ -53402,7 +53415,7 @@
         <v>1813</v>
       </c>
       <c r="H1941" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1942" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53417,10 +53430,10 @@
         <v>1377</v>
       </c>
       <c r="D1942" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1942" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1942" t="s">
         <v>1814</v>
@@ -53429,7 +53442,7 @@
         <v>1815</v>
       </c>
       <c r="H1942" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1943" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53444,10 +53457,10 @@
         <v>1377</v>
       </c>
       <c r="D1943" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1943" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1943" t="s">
         <v>1816</v>
@@ -53456,7 +53469,7 @@
         <v>1817</v>
       </c>
       <c r="H1943" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1944" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -53471,10 +53484,10 @@
         <v>1377</v>
       </c>
       <c r="D1944" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E1944" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1944" t="s">
         <v>1818</v>
@@ -53483,7 +53496,7 @@
         <v>1819</v>
       </c>
       <c r="H1944" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1945" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55766,10 +55779,10 @@
         <v>1377</v>
       </c>
       <c r="D2029" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2029" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2029" t="s">
         <v>1806</v>
@@ -55778,7 +55791,7 @@
         <v>1807</v>
       </c>
       <c r="H2029" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2030" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55793,10 +55806,10 @@
         <v>1377</v>
       </c>
       <c r="D2030" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2030" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2030" t="s">
         <v>1808</v>
@@ -55805,7 +55818,7 @@
         <v>1809</v>
       </c>
       <c r="H2030" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2031" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55820,10 +55833,10 @@
         <v>1377</v>
       </c>
       <c r="D2031" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2031" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2031" t="s">
         <v>1810</v>
@@ -55832,7 +55845,7 @@
         <v>1811</v>
       </c>
       <c r="H2031" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2032" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55847,10 +55860,10 @@
         <v>1377</v>
       </c>
       <c r="D2032" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2032" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2032" t="s">
         <v>1812</v>
@@ -55859,7 +55872,7 @@
         <v>1813</v>
       </c>
       <c r="H2032" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2033" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55874,10 +55887,10 @@
         <v>1377</v>
       </c>
       <c r="D2033" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2033" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2033" t="s">
         <v>1814</v>
@@ -55886,7 +55899,7 @@
         <v>1815</v>
       </c>
       <c r="H2033" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2034" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55901,10 +55914,10 @@
         <v>1377</v>
       </c>
       <c r="D2034" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2034" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2034" t="s">
         <v>1816</v>
@@ -55913,7 +55926,7 @@
         <v>1817</v>
       </c>
       <c r="H2034" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2035" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55928,10 +55941,10 @@
         <v>1377</v>
       </c>
       <c r="D2035" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2035" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2035" t="s">
         <v>1818</v>
@@ -55940,7 +55953,7 @@
         <v>1819</v>
       </c>
       <c r="H2035" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2036" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55955,10 +55968,10 @@
         <v>1377</v>
       </c>
       <c r="D2036" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2036" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2036" t="s">
         <v>1855</v>
@@ -55967,7 +55980,7 @@
         <v>1856</v>
       </c>
       <c r="H2036" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2037" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -55982,10 +55995,10 @@
         <v>1377</v>
       </c>
       <c r="D2037" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2037" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2037" t="s">
         <v>1857</v>
@@ -55994,7 +56007,7 @@
         <v>1858</v>
       </c>
       <c r="H2037" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2038" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56009,10 +56022,10 @@
         <v>1377</v>
       </c>
       <c r="D2038" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2038" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2038" t="s">
         <v>1859</v>
@@ -56021,7 +56034,7 @@
         <v>1860</v>
       </c>
       <c r="H2038" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2039" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56036,10 +56049,10 @@
         <v>1377</v>
       </c>
       <c r="D2039" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2039" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2039" t="s">
         <v>1861</v>
@@ -56048,7 +56061,7 @@
         <v>1862</v>
       </c>
       <c r="H2039" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2040" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56063,10 +56076,10 @@
         <v>1377</v>
       </c>
       <c r="D2040" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2040" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2040" t="s">
         <v>1863</v>
@@ -56075,7 +56088,7 @@
         <v>1864</v>
       </c>
       <c r="H2040" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2041" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56090,10 +56103,10 @@
         <v>1377</v>
       </c>
       <c r="D2041" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2041" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2041" t="s">
         <v>1865</v>
@@ -56102,7 +56115,7 @@
         <v>1866</v>
       </c>
       <c r="H2041" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2042" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56117,10 +56130,10 @@
         <v>1377</v>
       </c>
       <c r="D2042" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E2042" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F2042" t="s">
         <v>1867</v>
@@ -56129,7 +56142,7 @@
         <v>1868</v>
       </c>
       <c r="H2042" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2043" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56147,7 +56160,7 @@
         <v>1677</v>
       </c>
       <c r="E2043" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2043" t="s">
         <v>1806</v>
@@ -56174,7 +56187,7 @@
         <v>1677</v>
       </c>
       <c r="E2044" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2044" t="s">
         <v>1808</v>
@@ -56201,7 +56214,7 @@
         <v>1677</v>
       </c>
       <c r="E2045" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2045" t="s">
         <v>1810</v>
@@ -56228,7 +56241,7 @@
         <v>1677</v>
       </c>
       <c r="E2046" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2046" t="s">
         <v>1812</v>
@@ -56255,7 +56268,7 @@
         <v>1677</v>
       </c>
       <c r="E2047" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2047" t="s">
         <v>1814</v>
@@ -56282,7 +56295,7 @@
         <v>1677</v>
       </c>
       <c r="E2048" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2048" t="s">
         <v>1816</v>
@@ -56309,7 +56322,7 @@
         <v>1677</v>
       </c>
       <c r="E2049" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2049" t="s">
         <v>1818</v>
@@ -56336,7 +56349,7 @@
         <v>1677</v>
       </c>
       <c r="E2050" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2050" t="s">
         <v>1855</v>
@@ -56363,7 +56376,7 @@
         <v>1677</v>
       </c>
       <c r="E2051" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2051" t="s">
         <v>1857</v>
@@ -56390,7 +56403,7 @@
         <v>1677</v>
       </c>
       <c r="E2052" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2052" t="s">
         <v>1859</v>
@@ -56417,7 +56430,7 @@
         <v>1677</v>
       </c>
       <c r="E2053" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2053" t="s">
         <v>1861</v>
@@ -56444,7 +56457,7 @@
         <v>1677</v>
       </c>
       <c r="E2054" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2054" t="s">
         <v>1863</v>
@@ -56471,7 +56484,7 @@
         <v>1677</v>
       </c>
       <c r="E2055" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2055" t="s">
         <v>1865</v>
@@ -56498,7 +56511,7 @@
         <v>1677</v>
       </c>
       <c r="E2056" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F2056" t="s">
         <v>1867</v>
@@ -56525,7 +56538,7 @@
         <v>1678</v>
       </c>
       <c r="E2057" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2057" t="s">
         <v>1806</v>
@@ -56552,7 +56565,7 @@
         <v>1678</v>
       </c>
       <c r="E2058" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2058" t="s">
         <v>1808</v>
@@ -56579,7 +56592,7 @@
         <v>1678</v>
       </c>
       <c r="E2059" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2059" t="s">
         <v>1810</v>
@@ -56606,7 +56619,7 @@
         <v>1678</v>
       </c>
       <c r="E2060" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2060" t="s">
         <v>1812</v>
@@ -56633,7 +56646,7 @@
         <v>1678</v>
       </c>
       <c r="E2061" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2061" t="s">
         <v>1814</v>
@@ -56660,7 +56673,7 @@
         <v>1678</v>
       </c>
       <c r="E2062" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2062" t="s">
         <v>1816</v>
@@ -56687,7 +56700,7 @@
         <v>1678</v>
       </c>
       <c r="E2063" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2063" t="s">
         <v>1818</v>
@@ -56714,7 +56727,7 @@
         <v>1678</v>
       </c>
       <c r="E2064" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2064" t="s">
         <v>1855</v>
@@ -56741,7 +56754,7 @@
         <v>1678</v>
       </c>
       <c r="E2065" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2065" t="s">
         <v>1857</v>
@@ -56768,7 +56781,7 @@
         <v>1678</v>
       </c>
       <c r="E2066" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2066" t="s">
         <v>1859</v>
@@ -56795,7 +56808,7 @@
         <v>1678</v>
       </c>
       <c r="E2067" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2067" t="s">
         <v>1861</v>
@@ -56822,7 +56835,7 @@
         <v>1678</v>
       </c>
       <c r="E2068" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2068" t="s">
         <v>1863</v>
@@ -56849,7 +56862,7 @@
         <v>1678</v>
       </c>
       <c r="E2069" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2069" t="s">
         <v>1865</v>
@@ -56876,7 +56889,7 @@
         <v>1678</v>
       </c>
       <c r="E2070" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F2070" t="s">
         <v>1867</v>
@@ -56900,10 +56913,10 @@
         <v>1377</v>
       </c>
       <c r="D2071" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2071" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2071" t="s">
         <v>1806</v>
@@ -56912,7 +56925,7 @@
         <v>1807</v>
       </c>
       <c r="H2071" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2072" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56927,10 +56940,10 @@
         <v>1377</v>
       </c>
       <c r="D2072" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2072" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2072" t="s">
         <v>1808</v>
@@ -56939,7 +56952,7 @@
         <v>1809</v>
       </c>
       <c r="H2072" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2073" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56954,10 +56967,10 @@
         <v>1377</v>
       </c>
       <c r="D2073" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2073" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2073" t="s">
         <v>1810</v>
@@ -56966,7 +56979,7 @@
         <v>1811</v>
       </c>
       <c r="H2073" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2074" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -56981,10 +56994,10 @@
         <v>1377</v>
       </c>
       <c r="D2074" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2074" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2074" t="s">
         <v>1812</v>
@@ -56993,7 +57006,7 @@
         <v>1813</v>
       </c>
       <c r="H2074" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2075" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57008,10 +57021,10 @@
         <v>1377</v>
       </c>
       <c r="D2075" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2075" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2075" t="s">
         <v>1814</v>
@@ -57020,7 +57033,7 @@
         <v>1815</v>
       </c>
       <c r="H2075" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2076" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57035,10 +57048,10 @@
         <v>1377</v>
       </c>
       <c r="D2076" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2076" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2076" t="s">
         <v>1816</v>
@@ -57047,7 +57060,7 @@
         <v>1817</v>
       </c>
       <c r="H2076" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2077" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57062,10 +57075,10 @@
         <v>1377</v>
       </c>
       <c r="D2077" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2077" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2077" t="s">
         <v>1818</v>
@@ -57074,7 +57087,7 @@
         <v>1819</v>
       </c>
       <c r="H2077" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2078" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57089,10 +57102,10 @@
         <v>1377</v>
       </c>
       <c r="D2078" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2078" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2078" t="s">
         <v>1855</v>
@@ -57101,7 +57114,7 @@
         <v>1856</v>
       </c>
       <c r="H2078" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2079" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57116,10 +57129,10 @@
         <v>1377</v>
       </c>
       <c r="D2079" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2079" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2079" t="s">
         <v>1857</v>
@@ -57128,7 +57141,7 @@
         <v>1858</v>
       </c>
       <c r="H2079" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2080" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57143,10 +57156,10 @@
         <v>1377</v>
       </c>
       <c r="D2080" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2080" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2080" t="s">
         <v>1859</v>
@@ -57155,7 +57168,7 @@
         <v>1860</v>
       </c>
       <c r="H2080" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2081" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57170,10 +57183,10 @@
         <v>1377</v>
       </c>
       <c r="D2081" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2081" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2081" t="s">
         <v>1861</v>
@@ -57182,7 +57195,7 @@
         <v>1862</v>
       </c>
       <c r="H2081" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2082" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57197,10 +57210,10 @@
         <v>1377</v>
       </c>
       <c r="D2082" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2082" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2082" t="s">
         <v>1863</v>
@@ -57209,7 +57222,7 @@
         <v>1864</v>
       </c>
       <c r="H2082" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2083" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57224,10 +57237,10 @@
         <v>1377</v>
       </c>
       <c r="D2083" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2083" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2083" t="s">
         <v>1865</v>
@@ -57236,7 +57249,7 @@
         <v>1866</v>
       </c>
       <c r="H2083" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2084" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -57251,10 +57264,10 @@
         <v>1377</v>
       </c>
       <c r="D2084" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E2084" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F2084" t="s">
         <v>1867</v>
@@ -57263,7 +57276,7 @@
         <v>1868</v>
       </c>
       <c r="H2084" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2085" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -62195,7 +62208,7 @@
         <v>1692</v>
       </c>
       <c r="E2267" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2267" t="s">
         <v>1792</v>
@@ -62222,7 +62235,7 @@
         <v>1692</v>
       </c>
       <c r="E2268" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2268" t="s">
         <v>1794</v>
@@ -62249,7 +62262,7 @@
         <v>1692</v>
       </c>
       <c r="E2269" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2269" t="s">
         <v>1796</v>
@@ -62276,7 +62289,7 @@
         <v>1692</v>
       </c>
       <c r="E2270" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2270" t="s">
         <v>1798</v>
@@ -62303,7 +62316,7 @@
         <v>1692</v>
       </c>
       <c r="E2271" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2271" t="s">
         <v>1800</v>
@@ -62330,7 +62343,7 @@
         <v>1692</v>
       </c>
       <c r="E2272" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2272" t="s">
         <v>1802</v>
@@ -62357,7 +62370,7 @@
         <v>1692</v>
       </c>
       <c r="E2273" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2273" t="s">
         <v>1804</v>
@@ -62384,7 +62397,7 @@
         <v>1692</v>
       </c>
       <c r="E2274" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2274" t="s">
         <v>1806</v>
@@ -62411,7 +62424,7 @@
         <v>1692</v>
       </c>
       <c r="E2275" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2275" t="s">
         <v>1808</v>
@@ -62438,7 +62451,7 @@
         <v>1692</v>
       </c>
       <c r="E2276" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2276" t="s">
         <v>1810</v>
@@ -62465,7 +62478,7 @@
         <v>1692</v>
       </c>
       <c r="E2277" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2277" t="s">
         <v>1812</v>
@@ -62492,7 +62505,7 @@
         <v>1692</v>
       </c>
       <c r="E2278" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2278" t="s">
         <v>1814</v>
@@ -62519,7 +62532,7 @@
         <v>1692</v>
       </c>
       <c r="E2279" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2279" t="s">
         <v>1816</v>
@@ -62546,7 +62559,7 @@
         <v>1692</v>
       </c>
       <c r="E2280" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F2280" t="s">
         <v>1818</v>
@@ -64850,7 +64863,7 @@
         <v>1807</v>
       </c>
       <c r="H2365" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -64877,7 +64890,7 @@
         <v>1809</v>
       </c>
       <c r="H2366" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -64904,7 +64917,7 @@
         <v>1811</v>
       </c>
       <c r="H2367" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -64931,7 +64944,7 @@
         <v>1813</v>
       </c>
       <c r="H2368" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -64958,7 +64971,7 @@
         <v>1815</v>
       </c>
       <c r="H2369" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -64985,7 +64998,7 @@
         <v>1817</v>
       </c>
       <c r="H2370" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65012,7 +65025,7 @@
         <v>1819</v>
       </c>
       <c r="H2371" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65039,7 +65052,7 @@
         <v>1807</v>
       </c>
       <c r="H2372" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65066,7 +65079,7 @@
         <v>1809</v>
       </c>
       <c r="H2373" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65093,7 +65106,7 @@
         <v>1811</v>
       </c>
       <c r="H2374" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65120,7 +65133,7 @@
         <v>1813</v>
       </c>
       <c r="H2375" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65147,7 +65160,7 @@
         <v>1815</v>
       </c>
       <c r="H2376" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65174,7 +65187,7 @@
         <v>1817</v>
       </c>
       <c r="H2377" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65201,7 +65214,7 @@
         <v>1819</v>
       </c>
       <c r="H2378" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65228,7 +65241,7 @@
         <v>1807</v>
       </c>
       <c r="H2379" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65255,7 +65268,7 @@
         <v>1809</v>
       </c>
       <c r="H2380" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65282,7 +65295,7 @@
         <v>1811</v>
       </c>
       <c r="H2381" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65309,7 +65322,7 @@
         <v>1813</v>
       </c>
       <c r="H2382" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65336,7 +65349,7 @@
         <v>1815</v>
       </c>
       <c r="H2383" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65363,7 +65376,7 @@
         <v>1817</v>
       </c>
       <c r="H2384" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -65390,7 +65403,7 @@
         <v>1819</v>
       </c>
       <c r="H2385" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68041,19 +68054,19 @@
     </row>
     <row r="2484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2484" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B2484" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C2484" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D2484" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="B2484" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C2484" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D2484" s="3" t="s">
+      <c r="E2484" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2484" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="F2484" s="3" t="s">
         <v>1381</v>
@@ -68062,7 +68075,7 @@
         <v>1382</v>
       </c>
       <c r="H2484" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68077,10 +68090,10 @@
         <v>1377</v>
       </c>
       <c r="D2485" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E2485" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2485" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="F2485" t="s">
         <v>1806</v>
@@ -68089,7 +68102,7 @@
         <v>1807</v>
       </c>
       <c r="H2485" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68104,10 +68117,10 @@
         <v>1377</v>
       </c>
       <c r="D2486" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E2486" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2486" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="F2486" t="s">
         <v>1808</v>
@@ -68116,7 +68129,7 @@
         <v>1809</v>
       </c>
       <c r="H2486" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68131,10 +68144,10 @@
         <v>1377</v>
       </c>
       <c r="D2487" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E2487" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2487" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="F2487" t="s">
         <v>1810</v>
@@ -68143,7 +68156,7 @@
         <v>1811</v>
       </c>
       <c r="H2487" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68158,10 +68171,10 @@
         <v>1377</v>
       </c>
       <c r="D2488" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E2488" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2488" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="F2488" t="s">
         <v>1812</v>
@@ -68170,7 +68183,7 @@
         <v>1813</v>
       </c>
       <c r="H2488" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68185,10 +68198,10 @@
         <v>1377</v>
       </c>
       <c r="D2489" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E2489" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2489" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="F2489" t="s">
         <v>1814</v>
@@ -68197,7 +68210,7 @@
         <v>1815</v>
       </c>
       <c r="H2489" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68212,10 +68225,10 @@
         <v>1377</v>
       </c>
       <c r="D2490" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E2490" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2490" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="F2490" t="s">
         <v>1816</v>
@@ -68224,7 +68237,7 @@
         <v>1817</v>
       </c>
       <c r="H2490" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68239,10 +68252,10 @@
         <v>1377</v>
       </c>
       <c r="D2491" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E2491" s="3" t="s">
         <v>2003</v>
-      </c>
-      <c r="E2491" s="3" t="s">
-        <v>2004</v>
       </c>
       <c r="F2491" t="s">
         <v>1818</v>
@@ -68251,7 +68264,7 @@
         <v>1819</v>
       </c>
       <c r="H2491" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68266,10 +68279,10 @@
         <v>1377</v>
       </c>
       <c r="D2492" s="3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2492" s="3" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2492" s="3" t="s">
         <v>1381</v>
@@ -68278,7 +68291,7 @@
         <v>1382</v>
       </c>
       <c r="H2492" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68293,10 +68306,10 @@
         <v>1377</v>
       </c>
       <c r="D2493" s="3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2493" s="3" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2493" s="3" t="s">
         <v>1668</v>
@@ -68305,7 +68318,7 @@
         <v>1643</v>
       </c>
       <c r="H2493" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68320,10 +68333,10 @@
         <v>1377</v>
       </c>
       <c r="D2494" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2494" s="3" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2494" s="3" t="s">
         <v>1379</v>
@@ -68332,7 +68345,7 @@
         <v>1380</v>
       </c>
       <c r="H2494" s="3" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68347,10 +68360,10 @@
         <v>1377</v>
       </c>
       <c r="D2495" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2495" s="3" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2495" s="3" t="s">
         <v>1381</v>
@@ -68359,7 +68372,7 @@
         <v>1382</v>
       </c>
       <c r="H2495" s="3" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68374,10 +68387,10 @@
         <v>1377</v>
       </c>
       <c r="D2496" s="3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2496" s="3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2496" s="3" t="s">
         <v>1659</v>
@@ -68386,7 +68399,7 @@
         <v>1660</v>
       </c>
       <c r="H2496" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68401,10 +68414,10 @@
         <v>1377</v>
       </c>
       <c r="D2497" s="3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2497" s="3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2497" s="3" t="s">
         <v>1381</v>
@@ -68413,7 +68426,7 @@
         <v>1382</v>
       </c>
       <c r="H2497" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68428,10 +68441,10 @@
         <v>1377</v>
       </c>
       <c r="D2498" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2498" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2498" s="3" t="s">
         <v>1379</v>
@@ -68440,7 +68453,7 @@
         <v>1380</v>
       </c>
       <c r="H2498" s="3" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68455,10 +68468,10 @@
         <v>1377</v>
       </c>
       <c r="D2499" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2499" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2499" s="3" t="s">
         <v>1381</v>
@@ -68467,7 +68480,7 @@
         <v>1382</v>
       </c>
       <c r="H2499" s="3" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68482,10 +68495,10 @@
         <v>1377</v>
       </c>
       <c r="D2500" s="3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2500" s="3" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2500" s="3" t="s">
         <v>1381</v>
@@ -68494,7 +68507,7 @@
         <v>1382</v>
       </c>
       <c r="H2500" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68509,10 +68522,10 @@
         <v>1377</v>
       </c>
       <c r="D2501" s="3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2501" s="3" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2501" s="3" t="s">
         <v>1671</v>
@@ -68521,7 +68534,7 @@
         <v>1672</v>
       </c>
       <c r="H2501" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68536,10 +68549,10 @@
         <v>1377</v>
       </c>
       <c r="D2502" s="3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2502" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2502" s="3" t="s">
         <v>1379</v>
@@ -68548,7 +68561,7 @@
         <v>1380</v>
       </c>
       <c r="H2502" s="3" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68563,10 +68576,10 @@
         <v>1377</v>
       </c>
       <c r="D2503" s="3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2503" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2503" s="3" t="s">
         <v>1381</v>
@@ -68575,7 +68588,7 @@
         <v>1382</v>
       </c>
       <c r="H2503" s="3" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68590,10 +68603,10 @@
         <v>1377</v>
       </c>
       <c r="D2504" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2504" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2504" s="3" t="s">
         <v>1379</v>
@@ -68602,7 +68615,7 @@
         <v>1380</v>
       </c>
       <c r="H2504" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68617,10 +68630,10 @@
         <v>1377</v>
       </c>
       <c r="D2505" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2505" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2505" s="3" t="s">
         <v>1381</v>
@@ -68629,7 +68642,7 @@
         <v>1382</v>
       </c>
       <c r="H2505" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68644,10 +68657,10 @@
         <v>1377</v>
       </c>
       <c r="D2506" s="3" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2506" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2506" s="3" t="s">
         <v>1379</v>
@@ -68656,7 +68669,7 @@
         <v>1380</v>
       </c>
       <c r="H2506" s="3" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68671,10 +68684,10 @@
         <v>1377</v>
       </c>
       <c r="D2507" s="3" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2507" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2507" s="3" t="s">
         <v>1381</v>
@@ -68683,7 +68696,7 @@
         <v>1382</v>
       </c>
       <c r="H2507" s="3" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68698,10 +68711,10 @@
         <v>1377</v>
       </c>
       <c r="D2508" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2508" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2508" t="s">
         <v>1806</v>
@@ -68710,7 +68723,7 @@
         <v>1807</v>
       </c>
       <c r="H2508" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68725,10 +68738,10 @@
         <v>1377</v>
       </c>
       <c r="D2509" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2509" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2509" t="s">
         <v>1808</v>
@@ -68737,7 +68750,7 @@
         <v>1809</v>
       </c>
       <c r="H2509" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68752,10 +68765,10 @@
         <v>1377</v>
       </c>
       <c r="D2510" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2510" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2510" t="s">
         <v>1810</v>
@@ -68764,7 +68777,7 @@
         <v>1811</v>
       </c>
       <c r="H2510" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68779,10 +68792,10 @@
         <v>1377</v>
       </c>
       <c r="D2511" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2511" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2511" t="s">
         <v>1812</v>
@@ -68791,7 +68804,7 @@
         <v>1813</v>
       </c>
       <c r="H2511" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68806,10 +68819,10 @@
         <v>1377</v>
       </c>
       <c r="D2512" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2512" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2512" t="s">
         <v>1814</v>
@@ -68818,7 +68831,7 @@
         <v>1815</v>
       </c>
       <c r="H2512" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68833,10 +68846,10 @@
         <v>1377</v>
       </c>
       <c r="D2513" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2513" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2513" t="s">
         <v>1816</v>
@@ -68845,7 +68858,7 @@
         <v>1817</v>
       </c>
       <c r="H2513" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68860,10 +68873,10 @@
         <v>1377</v>
       </c>
       <c r="D2514" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2514" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2514" t="s">
         <v>1818</v>
@@ -68872,7 +68885,7 @@
         <v>1819</v>
       </c>
       <c r="H2514" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68887,10 +68900,10 @@
         <v>1377</v>
       </c>
       <c r="D2515" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2515" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2515" t="s">
         <v>1848</v>
@@ -68899,7 +68912,7 @@
         <v>1821</v>
       </c>
       <c r="H2515" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68914,10 +68927,10 @@
         <v>1377</v>
       </c>
       <c r="D2516" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2516" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2516" t="s">
         <v>1849</v>
@@ -68926,7 +68939,7 @@
         <v>1823</v>
       </c>
       <c r="H2516" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68941,10 +68954,10 @@
         <v>1377</v>
       </c>
       <c r="D2517" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2517" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2517" t="s">
         <v>1850</v>
@@ -68953,7 +68966,7 @@
         <v>1825</v>
       </c>
       <c r="H2517" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68968,10 +68981,10 @@
         <v>1377</v>
       </c>
       <c r="D2518" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2518" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2518" t="s">
         <v>1851</v>
@@ -68980,7 +68993,7 @@
         <v>1827</v>
       </c>
       <c r="H2518" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -68995,10 +69008,10 @@
         <v>1377</v>
       </c>
       <c r="D2519" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2519" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2519" t="s">
         <v>1852</v>
@@ -69007,7 +69020,7 @@
         <v>1829</v>
       </c>
       <c r="H2519" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69022,10 +69035,10 @@
         <v>1377</v>
       </c>
       <c r="D2520" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2520" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2520" t="s">
         <v>1853</v>
@@ -69034,7 +69047,7 @@
         <v>1831</v>
       </c>
       <c r="H2520" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69049,10 +69062,10 @@
         <v>1377</v>
       </c>
       <c r="D2521" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E2521" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F2521" t="s">
         <v>1854</v>
@@ -69061,7 +69074,7 @@
         <v>1833</v>
       </c>
       <c r="H2521" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69076,10 +69089,10 @@
         <v>1377</v>
       </c>
       <c r="D2522" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2522" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2522" t="s">
         <v>1792</v>
@@ -69088,7 +69101,7 @@
         <v>1793</v>
       </c>
       <c r="H2522" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69103,10 +69116,10 @@
         <v>1377</v>
       </c>
       <c r="D2523" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2523" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2523" t="s">
         <v>1794</v>
@@ -69115,7 +69128,7 @@
         <v>1795</v>
       </c>
       <c r="H2523" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69130,10 +69143,10 @@
         <v>1377</v>
       </c>
       <c r="D2524" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2524" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2524" t="s">
         <v>1796</v>
@@ -69142,7 +69155,7 @@
         <v>1797</v>
       </c>
       <c r="H2524" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69157,10 +69170,10 @@
         <v>1377</v>
       </c>
       <c r="D2525" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2525" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2525" t="s">
         <v>1798</v>
@@ -69169,7 +69182,7 @@
         <v>1799</v>
       </c>
       <c r="H2525" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69184,10 +69197,10 @@
         <v>1377</v>
       </c>
       <c r="D2526" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2526" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2526" t="s">
         <v>1800</v>
@@ -69196,7 +69209,7 @@
         <v>1801</v>
       </c>
       <c r="H2526" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69211,10 +69224,10 @@
         <v>1377</v>
       </c>
       <c r="D2527" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2527" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2527" t="s">
         <v>1802</v>
@@ -69223,7 +69236,7 @@
         <v>1803</v>
       </c>
       <c r="H2527" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69238,10 +69251,10 @@
         <v>1377</v>
       </c>
       <c r="D2528" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2528" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2528" t="s">
         <v>1804</v>
@@ -69250,7 +69263,7 @@
         <v>1805</v>
       </c>
       <c r="H2528" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69265,10 +69278,10 @@
         <v>1377</v>
       </c>
       <c r="D2529" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2529" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2529" t="s">
         <v>1806</v>
@@ -69277,7 +69290,7 @@
         <v>1807</v>
       </c>
       <c r="H2529" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69292,10 +69305,10 @@
         <v>1377</v>
       </c>
       <c r="D2530" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2530" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2530" t="s">
         <v>1808</v>
@@ -69304,7 +69317,7 @@
         <v>1809</v>
       </c>
       <c r="H2530" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69319,10 +69332,10 @@
         <v>1377</v>
       </c>
       <c r="D2531" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2531" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2531" t="s">
         <v>1810</v>
@@ -69331,7 +69344,7 @@
         <v>1811</v>
       </c>
       <c r="H2531" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69346,10 +69359,10 @@
         <v>1377</v>
       </c>
       <c r="D2532" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2532" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2532" t="s">
         <v>1812</v>
@@ -69358,7 +69371,7 @@
         <v>1813</v>
       </c>
       <c r="H2532" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69373,10 +69386,10 @@
         <v>1377</v>
       </c>
       <c r="D2533" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2533" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2533" t="s">
         <v>1814</v>
@@ -69385,7 +69398,7 @@
         <v>1815</v>
       </c>
       <c r="H2533" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69400,10 +69413,10 @@
         <v>1377</v>
       </c>
       <c r="D2534" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2534" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2534" t="s">
         <v>1816</v>
@@ -69412,7 +69425,7 @@
         <v>1817</v>
       </c>
       <c r="H2534" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69427,10 +69440,10 @@
         <v>1377</v>
       </c>
       <c r="D2535" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E2535" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F2535" t="s">
         <v>1818</v>
@@ -69439,7 +69452,7 @@
         <v>1819</v>
       </c>
       <c r="H2535" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69454,10 +69467,10 @@
         <v>1377</v>
       </c>
       <c r="D2536" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2536" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2536" t="s">
         <v>1834</v>
@@ -69466,7 +69479,7 @@
         <v>1835</v>
       </c>
       <c r="H2536" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69481,10 +69494,10 @@
         <v>1377</v>
       </c>
       <c r="D2537" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2537" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2537" t="s">
         <v>1836</v>
@@ -69493,7 +69506,7 @@
         <v>1837</v>
       </c>
       <c r="H2537" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69508,10 +69521,10 @@
         <v>1377</v>
       </c>
       <c r="D2538" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2538" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2538" t="s">
         <v>1838</v>
@@ -69520,7 +69533,7 @@
         <v>1839</v>
       </c>
       <c r="H2538" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69535,10 +69548,10 @@
         <v>1377</v>
       </c>
       <c r="D2539" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2539" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2539" t="s">
         <v>1840</v>
@@ -69547,7 +69560,7 @@
         <v>1841</v>
       </c>
       <c r="H2539" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69562,10 +69575,10 @@
         <v>1377</v>
       </c>
       <c r="D2540" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2540" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2540" t="s">
         <v>1842</v>
@@ -69574,7 +69587,7 @@
         <v>1843</v>
       </c>
       <c r="H2540" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69589,10 +69602,10 @@
         <v>1377</v>
       </c>
       <c r="D2541" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2541" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2541" t="s">
         <v>1844</v>
@@ -69601,7 +69614,7 @@
         <v>1845</v>
       </c>
       <c r="H2541" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69616,10 +69629,10 @@
         <v>1377</v>
       </c>
       <c r="D2542" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2542" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2542" t="s">
         <v>1846</v>
@@ -69628,7 +69641,7 @@
         <v>1847</v>
       </c>
       <c r="H2542" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69643,10 +69656,10 @@
         <v>1377</v>
       </c>
       <c r="D2543" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2543" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2543" t="s">
         <v>1806</v>
@@ -69655,7 +69668,7 @@
         <v>1807</v>
       </c>
       <c r="H2543" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69670,10 +69683,10 @@
         <v>1377</v>
       </c>
       <c r="D2544" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2544" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2544" t="s">
         <v>1808</v>
@@ -69682,7 +69695,7 @@
         <v>1809</v>
       </c>
       <c r="H2544" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69697,10 +69710,10 @@
         <v>1377</v>
       </c>
       <c r="D2545" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2545" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2545" t="s">
         <v>1810</v>
@@ -69709,7 +69722,7 @@
         <v>1811</v>
       </c>
       <c r="H2545" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69724,10 +69737,10 @@
         <v>1377</v>
       </c>
       <c r="D2546" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2546" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2546" t="s">
         <v>1812</v>
@@ -69736,7 +69749,7 @@
         <v>1813</v>
       </c>
       <c r="H2546" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69751,10 +69764,10 @@
         <v>1377</v>
       </c>
       <c r="D2547" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2547" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2547" t="s">
         <v>1814</v>
@@ -69763,7 +69776,7 @@
         <v>1815</v>
       </c>
       <c r="H2547" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69778,10 +69791,10 @@
         <v>1377</v>
       </c>
       <c r="D2548" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2548" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2548" t="s">
         <v>1816</v>
@@ -69790,7 +69803,7 @@
         <v>1817</v>
       </c>
       <c r="H2548" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69805,10 +69818,10 @@
         <v>1377</v>
       </c>
       <c r="D2549" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E2549" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F2549" t="s">
         <v>1818</v>
@@ -69817,7 +69830,7 @@
         <v>1819</v>
       </c>
       <c r="H2549" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69832,10 +69845,10 @@
         <v>1377</v>
       </c>
       <c r="D2550" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2550" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2550" t="s">
         <v>1792</v>
@@ -69844,7 +69857,7 @@
         <v>1793</v>
       </c>
       <c r="H2550" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69859,10 +69872,10 @@
         <v>1377</v>
       </c>
       <c r="D2551" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2551" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2551" t="s">
         <v>1794</v>
@@ -69871,7 +69884,7 @@
         <v>1795</v>
       </c>
       <c r="H2551" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69886,10 +69899,10 @@
         <v>1377</v>
       </c>
       <c r="D2552" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2552" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2552" t="s">
         <v>1796</v>
@@ -69898,7 +69911,7 @@
         <v>1797</v>
       </c>
       <c r="H2552" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69913,10 +69926,10 @@
         <v>1377</v>
       </c>
       <c r="D2553" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2553" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2553" t="s">
         <v>1798</v>
@@ -69925,7 +69938,7 @@
         <v>1799</v>
       </c>
       <c r="H2553" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69940,10 +69953,10 @@
         <v>1377</v>
       </c>
       <c r="D2554" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2554" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2554" t="s">
         <v>1800</v>
@@ -69952,7 +69965,7 @@
         <v>1801</v>
       </c>
       <c r="H2554" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69967,10 +69980,10 @@
         <v>1377</v>
       </c>
       <c r="D2555" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2555" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2555" t="s">
         <v>1802</v>
@@ -69979,7 +69992,7 @@
         <v>1803</v>
       </c>
       <c r="H2555" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -69994,10 +70007,10 @@
         <v>1377</v>
       </c>
       <c r="D2556" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2556" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2556" t="s">
         <v>1804</v>
@@ -70006,7 +70019,7 @@
         <v>1805</v>
       </c>
       <c r="H2556" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70021,10 +70034,10 @@
         <v>1377</v>
       </c>
       <c r="D2557" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2557" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2557" t="s">
         <v>1806</v>
@@ -70033,7 +70046,7 @@
         <v>1807</v>
       </c>
       <c r="H2557" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70048,10 +70061,10 @@
         <v>1377</v>
       </c>
       <c r="D2558" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2558" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2558" t="s">
         <v>1808</v>
@@ -70060,7 +70073,7 @@
         <v>1809</v>
       </c>
       <c r="H2558" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70075,10 +70088,10 @@
         <v>1377</v>
       </c>
       <c r="D2559" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2559" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2559" t="s">
         <v>1810</v>
@@ -70087,7 +70100,7 @@
         <v>1811</v>
       </c>
       <c r="H2559" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70102,10 +70115,10 @@
         <v>1377</v>
       </c>
       <c r="D2560" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2560" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2560" t="s">
         <v>1812</v>
@@ -70114,7 +70127,7 @@
         <v>1813</v>
       </c>
       <c r="H2560" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70129,10 +70142,10 @@
         <v>1377</v>
       </c>
       <c r="D2561" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2561" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2561" t="s">
         <v>1814</v>
@@ -70141,7 +70154,7 @@
         <v>1815</v>
       </c>
       <c r="H2561" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70156,10 +70169,10 @@
         <v>1377</v>
       </c>
       <c r="D2562" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2562" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2562" t="s">
         <v>1816</v>
@@ -70168,7 +70181,7 @@
         <v>1817</v>
       </c>
       <c r="H2562" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70183,10 +70196,10 @@
         <v>1377</v>
       </c>
       <c r="D2563" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E2563" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F2563" t="s">
         <v>1818</v>
@@ -70195,7 +70208,7 @@
         <v>1819</v>
       </c>
       <c r="H2563" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70210,10 +70223,10 @@
         <v>1377</v>
       </c>
       <c r="D2564" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2564" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2564" t="s">
         <v>1806</v>
@@ -70222,7 +70235,7 @@
         <v>1807</v>
       </c>
       <c r="H2564" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70237,10 +70250,10 @@
         <v>1377</v>
       </c>
       <c r="D2565" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2565" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2565" t="s">
         <v>1808</v>
@@ -70249,7 +70262,7 @@
         <v>1809</v>
       </c>
       <c r="H2565" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70264,10 +70277,10 @@
         <v>1377</v>
       </c>
       <c r="D2566" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2566" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2566" t="s">
         <v>1810</v>
@@ -70276,7 +70289,7 @@
         <v>1811</v>
       </c>
       <c r="H2566" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70291,10 +70304,10 @@
         <v>1377</v>
       </c>
       <c r="D2567" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2567" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2567" t="s">
         <v>1812</v>
@@ -70303,7 +70316,7 @@
         <v>1813</v>
       </c>
       <c r="H2567" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70318,10 +70331,10 @@
         <v>1377</v>
       </c>
       <c r="D2568" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2568" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2568" t="s">
         <v>1814</v>
@@ -70330,7 +70343,7 @@
         <v>1815</v>
       </c>
       <c r="H2568" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70345,10 +70358,10 @@
         <v>1377</v>
       </c>
       <c r="D2569" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2569" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2569" t="s">
         <v>1816</v>
@@ -70357,7 +70370,7 @@
         <v>1817</v>
       </c>
       <c r="H2569" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70372,10 +70385,10 @@
         <v>1377</v>
       </c>
       <c r="D2570" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2570" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2570" t="s">
         <v>1818</v>
@@ -70384,7 +70397,7 @@
         <v>1819</v>
       </c>
       <c r="H2570" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70399,10 +70412,10 @@
         <v>1377</v>
       </c>
       <c r="D2571" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2571" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2571" t="s">
         <v>1855</v>
@@ -70411,7 +70424,7 @@
         <v>1856</v>
       </c>
       <c r="H2571" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70426,10 +70439,10 @@
         <v>1377</v>
       </c>
       <c r="D2572" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2572" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2572" t="s">
         <v>1857</v>
@@ -70438,7 +70451,7 @@
         <v>1858</v>
       </c>
       <c r="H2572" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70453,10 +70466,10 @@
         <v>1377</v>
       </c>
       <c r="D2573" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2573" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2573" t="s">
         <v>1859</v>
@@ -70465,7 +70478,7 @@
         <v>1860</v>
       </c>
       <c r="H2573" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70480,10 +70493,10 @@
         <v>1377</v>
       </c>
       <c r="D2574" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2574" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2574" t="s">
         <v>1861</v>
@@ -70492,7 +70505,7 @@
         <v>1862</v>
       </c>
       <c r="H2574" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70507,10 +70520,10 @@
         <v>1377</v>
       </c>
       <c r="D2575" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2575" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2575" t="s">
         <v>1863</v>
@@ -70519,7 +70532,7 @@
         <v>1864</v>
       </c>
       <c r="H2575" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70534,10 +70547,10 @@
         <v>1377</v>
       </c>
       <c r="D2576" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2576" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2576" t="s">
         <v>1865</v>
@@ -70546,7 +70559,7 @@
         <v>1866</v>
       </c>
       <c r="H2576" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70561,10 +70574,10 @@
         <v>1377</v>
       </c>
       <c r="D2577" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E2577" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F2577" t="s">
         <v>1867</v>
@@ -70573,7 +70586,7 @@
         <v>1868</v>
       </c>
       <c r="H2577" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70588,10 +70601,10 @@
         <v>1377</v>
       </c>
       <c r="D2578" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2578" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2578" t="s">
         <v>1792</v>
@@ -70600,7 +70613,7 @@
         <v>1793</v>
       </c>
       <c r="H2578" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70615,10 +70628,10 @@
         <v>1377</v>
       </c>
       <c r="D2579" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2579" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2579" t="s">
         <v>1794</v>
@@ -70627,7 +70640,7 @@
         <v>1795</v>
       </c>
       <c r="H2579" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70642,10 +70655,10 @@
         <v>1377</v>
       </c>
       <c r="D2580" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2580" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2580" t="s">
         <v>1796</v>
@@ -70654,7 +70667,7 @@
         <v>1797</v>
       </c>
       <c r="H2580" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70669,10 +70682,10 @@
         <v>1377</v>
       </c>
       <c r="D2581" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2581" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2581" t="s">
         <v>1798</v>
@@ -70681,7 +70694,7 @@
         <v>1799</v>
       </c>
       <c r="H2581" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70696,10 +70709,10 @@
         <v>1377</v>
       </c>
       <c r="D2582" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2582" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2582" t="s">
         <v>1800</v>
@@ -70708,7 +70721,7 @@
         <v>1801</v>
       </c>
       <c r="H2582" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70723,10 +70736,10 @@
         <v>1377</v>
       </c>
       <c r="D2583" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2583" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2583" t="s">
         <v>1802</v>
@@ -70735,7 +70748,7 @@
         <v>1803</v>
       </c>
       <c r="H2583" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70750,10 +70763,10 @@
         <v>1377</v>
       </c>
       <c r="D2584" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2584" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2584" t="s">
         <v>1804</v>
@@ -70762,7 +70775,7 @@
         <v>1805</v>
       </c>
       <c r="H2584" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70777,10 +70790,10 @@
         <v>1377</v>
       </c>
       <c r="D2585" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2585" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2585" t="s">
         <v>1806</v>
@@ -70789,7 +70802,7 @@
         <v>1807</v>
       </c>
       <c r="H2585" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70804,10 +70817,10 @@
         <v>1377</v>
       </c>
       <c r="D2586" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2586" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2586" t="s">
         <v>1808</v>
@@ -70816,7 +70829,7 @@
         <v>1809</v>
       </c>
       <c r="H2586" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70831,10 +70844,10 @@
         <v>1377</v>
       </c>
       <c r="D2587" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2587" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2587" t="s">
         <v>1810</v>
@@ -70843,7 +70856,7 @@
         <v>1811</v>
       </c>
       <c r="H2587" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2588" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70858,10 +70871,10 @@
         <v>1377</v>
       </c>
       <c r="D2588" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2588" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2588" t="s">
         <v>1812</v>
@@ -70870,7 +70883,7 @@
         <v>1813</v>
       </c>
       <c r="H2588" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70885,10 +70898,10 @@
         <v>1377</v>
       </c>
       <c r="D2589" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2589" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2589" t="s">
         <v>1814</v>
@@ -70897,7 +70910,7 @@
         <v>1815</v>
       </c>
       <c r="H2589" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70912,10 +70925,10 @@
         <v>1377</v>
       </c>
       <c r="D2590" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2590" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2590" t="s">
         <v>1816</v>
@@ -70924,7 +70937,7 @@
         <v>1817</v>
       </c>
       <c r="H2590" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70939,10 +70952,10 @@
         <v>1377</v>
       </c>
       <c r="D2591" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E2591" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F2591" t="s">
         <v>1818</v>
@@ -70951,7 +70964,7 @@
         <v>1819</v>
       </c>
       <c r="H2591" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70966,10 +70979,10 @@
         <v>1377</v>
       </c>
       <c r="D2592" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2592" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2592" t="s">
         <v>1792</v>
@@ -70978,7 +70991,7 @@
         <v>1793</v>
       </c>
       <c r="H2592" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2593" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -70993,10 +71006,10 @@
         <v>1377</v>
       </c>
       <c r="D2593" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2593" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2593" t="s">
         <v>1794</v>
@@ -71005,7 +71018,7 @@
         <v>1795</v>
       </c>
       <c r="H2593" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71020,10 +71033,10 @@
         <v>1377</v>
       </c>
       <c r="D2594" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2594" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2594" t="s">
         <v>1796</v>
@@ -71032,7 +71045,7 @@
         <v>1797</v>
       </c>
       <c r="H2594" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71047,10 +71060,10 @@
         <v>1377</v>
       </c>
       <c r="D2595" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2595" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2595" t="s">
         <v>1798</v>
@@ -71059,7 +71072,7 @@
         <v>1799</v>
       </c>
       <c r="H2595" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71074,10 +71087,10 @@
         <v>1377</v>
       </c>
       <c r="D2596" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2596" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2596" t="s">
         <v>1800</v>
@@ -71086,7 +71099,7 @@
         <v>1801</v>
       </c>
       <c r="H2596" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71101,10 +71114,10 @@
         <v>1377</v>
       </c>
       <c r="D2597" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2597" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2597" t="s">
         <v>1802</v>
@@ -71113,7 +71126,7 @@
         <v>1803</v>
       </c>
       <c r="H2597" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71128,10 +71141,10 @@
         <v>1377</v>
       </c>
       <c r="D2598" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2598" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2598" t="s">
         <v>1804</v>
@@ -71140,7 +71153,7 @@
         <v>1805</v>
       </c>
       <c r="H2598" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2599" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71155,10 +71168,10 @@
         <v>1377</v>
       </c>
       <c r="D2599" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2599" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2599" t="s">
         <v>1806</v>
@@ -71167,7 +71180,7 @@
         <v>1807</v>
       </c>
       <c r="H2599" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71182,10 +71195,10 @@
         <v>1377</v>
       </c>
       <c r="D2600" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2600" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2600" t="s">
         <v>1808</v>
@@ -71194,7 +71207,7 @@
         <v>1809</v>
       </c>
       <c r="H2600" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2601" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71209,10 +71222,10 @@
         <v>1377</v>
       </c>
       <c r="D2601" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2601" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2601" t="s">
         <v>1810</v>
@@ -71221,7 +71234,7 @@
         <v>1811</v>
       </c>
       <c r="H2601" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71236,10 +71249,10 @@
         <v>1377</v>
       </c>
       <c r="D2602" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2602" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2602" t="s">
         <v>1812</v>
@@ -71248,7 +71261,7 @@
         <v>1813</v>
       </c>
       <c r="H2602" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2603" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71263,10 +71276,10 @@
         <v>1377</v>
       </c>
       <c r="D2603" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2603" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2603" t="s">
         <v>1814</v>
@@ -71275,7 +71288,7 @@
         <v>1815</v>
       </c>
       <c r="H2603" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2604" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71290,10 +71303,10 @@
         <v>1377</v>
       </c>
       <c r="D2604" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2604" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2604" t="s">
         <v>1816</v>
@@ -71302,7 +71315,7 @@
         <v>1817</v>
       </c>
       <c r="H2604" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2605" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71317,10 +71330,10 @@
         <v>1377</v>
       </c>
       <c r="D2605" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E2605" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F2605" t="s">
         <v>1818</v>
@@ -71329,7 +71342,7 @@
         <v>1819</v>
       </c>
       <c r="H2605" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2606" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71344,10 +71357,10 @@
         <v>1377</v>
       </c>
       <c r="D2606" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2606" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2606" t="s">
         <v>1792</v>
@@ -71356,7 +71369,7 @@
         <v>1793</v>
       </c>
       <c r="H2606" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71371,10 +71384,10 @@
         <v>1377</v>
       </c>
       <c r="D2607" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2607" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2607" t="s">
         <v>1794</v>
@@ -71383,7 +71396,7 @@
         <v>1795</v>
       </c>
       <c r="H2607" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2608" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71398,10 +71411,10 @@
         <v>1377</v>
       </c>
       <c r="D2608" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2608" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2608" t="s">
         <v>1796</v>
@@ -71410,7 +71423,7 @@
         <v>1797</v>
       </c>
       <c r="H2608" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2609" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71425,10 +71438,10 @@
         <v>1377</v>
       </c>
       <c r="D2609" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2609" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2609" t="s">
         <v>1798</v>
@@ -71437,7 +71450,7 @@
         <v>1799</v>
       </c>
       <c r="H2609" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2610" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71452,10 +71465,10 @@
         <v>1377</v>
       </c>
       <c r="D2610" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2610" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2610" t="s">
         <v>1800</v>
@@ -71464,7 +71477,7 @@
         <v>1801</v>
       </c>
       <c r="H2610" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71479,10 +71492,10 @@
         <v>1377</v>
       </c>
       <c r="D2611" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2611" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2611" t="s">
         <v>1802</v>
@@ -71491,7 +71504,7 @@
         <v>1803</v>
       </c>
       <c r="H2611" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71506,10 +71519,10 @@
         <v>1377</v>
       </c>
       <c r="D2612" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2612" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2612" t="s">
         <v>1804</v>
@@ -71518,7 +71531,7 @@
         <v>1805</v>
       </c>
       <c r="H2612" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71533,10 +71546,10 @@
         <v>1377</v>
       </c>
       <c r="D2613" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2613" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2613" t="s">
         <v>1806</v>
@@ -71545,7 +71558,7 @@
         <v>1807</v>
       </c>
       <c r="H2613" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71560,10 +71573,10 @@
         <v>1377</v>
       </c>
       <c r="D2614" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2614" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2614" t="s">
         <v>1808</v>
@@ -71572,7 +71585,7 @@
         <v>1809</v>
       </c>
       <c r="H2614" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71587,10 +71600,10 @@
         <v>1377</v>
       </c>
       <c r="D2615" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2615" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2615" t="s">
         <v>1810</v>
@@ -71599,7 +71612,7 @@
         <v>1811</v>
       </c>
       <c r="H2615" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71614,10 +71627,10 @@
         <v>1377</v>
       </c>
       <c r="D2616" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2616" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2616" t="s">
         <v>1812</v>
@@ -71626,7 +71639,7 @@
         <v>1813</v>
       </c>
       <c r="H2616" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71641,10 +71654,10 @@
         <v>1377</v>
       </c>
       <c r="D2617" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2617" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2617" t="s">
         <v>1814</v>
@@ -71653,7 +71666,7 @@
         <v>1815</v>
       </c>
       <c r="H2617" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71668,10 +71681,10 @@
         <v>1377</v>
       </c>
       <c r="D2618" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2618" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2618" t="s">
         <v>1816</v>
@@ -71680,7 +71693,7 @@
         <v>1817</v>
       </c>
       <c r="H2618" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -71695,10 +71708,10 @@
         <v>1377</v>
       </c>
       <c r="D2619" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E2619" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F2619" t="s">
         <v>1818</v>
@@ -71707,7 +71720,7 @@
         <v>1819</v>
       </c>
       <c r="H2619" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -75880,10 +75893,10 @@
         <v>1377</v>
       </c>
       <c r="D2774" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2774" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2774" t="s">
-        <v>2034</v>
       </c>
       <c r="F2774" t="s">
         <v>1381</v>
@@ -75907,10 +75920,10 @@
         <v>1377</v>
       </c>
       <c r="D2775" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2775" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2775" t="s">
-        <v>2034</v>
       </c>
       <c r="F2775" t="s">
         <v>1806</v>
@@ -75934,10 +75947,10 @@
         <v>1377</v>
       </c>
       <c r="D2776" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2776" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2776" t="s">
-        <v>2034</v>
       </c>
       <c r="F2776" t="s">
         <v>1808</v>
@@ -75961,10 +75974,10 @@
         <v>1377</v>
       </c>
       <c r="D2777" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2777" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2777" t="s">
-        <v>2034</v>
       </c>
       <c r="F2777" t="s">
         <v>1810</v>
@@ -75988,10 +76001,10 @@
         <v>1377</v>
       </c>
       <c r="D2778" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2778" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2778" t="s">
-        <v>2034</v>
       </c>
       <c r="F2778" t="s">
         <v>1812</v>
@@ -76015,10 +76028,10 @@
         <v>1377</v>
       </c>
       <c r="D2779" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2779" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2779" t="s">
-        <v>2034</v>
       </c>
       <c r="F2779" t="s">
         <v>1814</v>
@@ -76042,10 +76055,10 @@
         <v>1377</v>
       </c>
       <c r="D2780" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2780" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2780" t="s">
-        <v>2034</v>
       </c>
       <c r="F2780" t="s">
         <v>1816</v>
@@ -76069,10 +76082,10 @@
         <v>1377</v>
       </c>
       <c r="D2781" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2781" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2781" t="s">
-        <v>2034</v>
       </c>
       <c r="F2781" t="s">
         <v>1818</v>
@@ -76096,10 +76109,10 @@
         <v>1377</v>
       </c>
       <c r="D2782" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2782" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2782" t="s">
-        <v>2034</v>
       </c>
       <c r="F2782" t="s">
         <v>1668</v>
@@ -76123,10 +76136,10 @@
         <v>1377</v>
       </c>
       <c r="D2783" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2783" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2783" t="s">
-        <v>2034</v>
       </c>
       <c r="F2783" t="s">
         <v>1848</v>
@@ -76150,10 +76163,10 @@
         <v>1377</v>
       </c>
       <c r="D2784" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2784" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2784" t="s">
-        <v>2034</v>
       </c>
       <c r="F2784" t="s">
         <v>1849</v>
@@ -76177,10 +76190,10 @@
         <v>1377</v>
       </c>
       <c r="D2785" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2785" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2785" t="s">
-        <v>2034</v>
       </c>
       <c r="F2785" t="s">
         <v>1850</v>
@@ -76204,10 +76217,10 @@
         <v>1377</v>
       </c>
       <c r="D2786" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2786" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2786" t="s">
-        <v>2034</v>
       </c>
       <c r="F2786" t="s">
         <v>1851</v>
@@ -76231,10 +76244,10 @@
         <v>1377</v>
       </c>
       <c r="D2787" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2787" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2787" t="s">
-        <v>2034</v>
       </c>
       <c r="F2787" t="s">
         <v>1852</v>
@@ -76258,10 +76271,10 @@
         <v>1377</v>
       </c>
       <c r="D2788" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2788" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2788" t="s">
-        <v>2034</v>
       </c>
       <c r="F2788" t="s">
         <v>1853</v>
@@ -76285,10 +76298,10 @@
         <v>1377</v>
       </c>
       <c r="D2789" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E2789" t="s">
         <v>2033</v>
-      </c>
-      <c r="E2789" t="s">
-        <v>2034</v>
       </c>
       <c r="F2789" t="s">
         <v>1854</v>
@@ -76312,10 +76325,10 @@
         <v>1377</v>
       </c>
       <c r="D2790" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2790" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2790" t="s">
-        <v>2036</v>
       </c>
       <c r="F2790" t="s">
         <v>1381</v>
@@ -76339,10 +76352,10 @@
         <v>1377</v>
       </c>
       <c r="D2791" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2791" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2791" t="s">
-        <v>2036</v>
       </c>
       <c r="F2791" t="s">
         <v>1806</v>
@@ -76366,10 +76379,10 @@
         <v>1377</v>
       </c>
       <c r="D2792" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2792" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2792" t="s">
-        <v>2036</v>
       </c>
       <c r="F2792" t="s">
         <v>1808</v>
@@ -76393,10 +76406,10 @@
         <v>1377</v>
       </c>
       <c r="D2793" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2793" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2793" t="s">
-        <v>2036</v>
       </c>
       <c r="F2793" t="s">
         <v>1810</v>
@@ -76420,10 +76433,10 @@
         <v>1377</v>
       </c>
       <c r="D2794" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2794" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2794" t="s">
-        <v>2036</v>
       </c>
       <c r="F2794" t="s">
         <v>1812</v>
@@ -76447,10 +76460,10 @@
         <v>1377</v>
       </c>
       <c r="D2795" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2795" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2795" t="s">
-        <v>2036</v>
       </c>
       <c r="F2795" t="s">
         <v>1814</v>
@@ -76474,10 +76487,10 @@
         <v>1377</v>
       </c>
       <c r="D2796" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2796" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2796" t="s">
-        <v>2036</v>
       </c>
       <c r="F2796" t="s">
         <v>1816</v>
@@ -76501,10 +76514,10 @@
         <v>1377</v>
       </c>
       <c r="D2797" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2797" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2797" t="s">
-        <v>2036</v>
       </c>
       <c r="F2797" t="s">
         <v>1818</v>
@@ -76528,10 +76541,10 @@
         <v>1377</v>
       </c>
       <c r="D2798" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2798" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2798" t="s">
-        <v>2036</v>
       </c>
       <c r="F2798" t="s">
         <v>1668</v>
@@ -76555,10 +76568,10 @@
         <v>1377</v>
       </c>
       <c r="D2799" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2799" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2799" t="s">
-        <v>2036</v>
       </c>
       <c r="F2799" t="s">
         <v>1848</v>
@@ -76582,10 +76595,10 @@
         <v>1377</v>
       </c>
       <c r="D2800" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2800" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2800" t="s">
-        <v>2036</v>
       </c>
       <c r="F2800" t="s">
         <v>1849</v>
@@ -76609,10 +76622,10 @@
         <v>1377</v>
       </c>
       <c r="D2801" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2801" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2801" t="s">
-        <v>2036</v>
       </c>
       <c r="F2801" t="s">
         <v>1850</v>
@@ -76636,10 +76649,10 @@
         <v>1377</v>
       </c>
       <c r="D2802" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2802" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2802" t="s">
-        <v>2036</v>
       </c>
       <c r="F2802" t="s">
         <v>1851</v>
@@ -76663,10 +76676,10 @@
         <v>1377</v>
       </c>
       <c r="D2803" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2803" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2803" t="s">
-        <v>2036</v>
       </c>
       <c r="F2803" t="s">
         <v>1852</v>
@@ -76690,10 +76703,10 @@
         <v>1377</v>
       </c>
       <c r="D2804" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2804" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2804" t="s">
-        <v>2036</v>
       </c>
       <c r="F2804" t="s">
         <v>1853</v>
@@ -76717,10 +76730,10 @@
         <v>1377</v>
       </c>
       <c r="D2805" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2805" t="s">
         <v>2035</v>
-      </c>
-      <c r="E2805" t="s">
-        <v>2036</v>
       </c>
       <c r="F2805" t="s">
         <v>1854</v>
@@ -76744,10 +76757,10 @@
         <v>1377</v>
       </c>
       <c r="D2806" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E2806" t="s">
         <v>2039</v>
-      </c>
-      <c r="E2806" t="s">
-        <v>2040</v>
       </c>
       <c r="F2806" t="s">
         <v>1381</v>
@@ -76756,7 +76769,7 @@
         <v>1382</v>
       </c>
       <c r="H2806" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2807" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -76771,10 +76784,10 @@
         <v>1377</v>
       </c>
       <c r="D2807" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E2807" t="s">
         <v>2039</v>
-      </c>
-      <c r="E2807" t="s">
-        <v>2040</v>
       </c>
       <c r="F2807" t="s">
         <v>1806</v>
@@ -76783,7 +76796,7 @@
         <v>1807</v>
       </c>
       <c r="H2807" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2808" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -76798,10 +76811,10 @@
         <v>1377</v>
       </c>
       <c r="D2808" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E2808" t="s">
         <v>2039</v>
-      </c>
-      <c r="E2808" t="s">
-        <v>2040</v>
       </c>
       <c r="F2808" t="s">
         <v>1808</v>
@@ -76810,7 +76823,7 @@
         <v>1809</v>
       </c>
       <c r="H2808" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2809" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -76825,10 +76838,10 @@
         <v>1377</v>
       </c>
       <c r="D2809" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E2809" t="s">
         <v>2039</v>
-      </c>
-      <c r="E2809" t="s">
-        <v>2040</v>
       </c>
       <c r="F2809" t="s">
         <v>1810</v>
@@ -76837,7 +76850,7 @@
         <v>1811</v>
       </c>
       <c r="H2809" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2810" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -76852,10 +76865,10 @@
         <v>1377</v>
       </c>
       <c r="D2810" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E2810" t="s">
         <v>2039</v>
-      </c>
-      <c r="E2810" t="s">
-        <v>2040</v>
       </c>
       <c r="F2810" t="s">
         <v>1812</v>
@@ -76864,7 +76877,7 @@
         <v>1813</v>
       </c>
       <c r="H2810" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2811" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -76879,10 +76892,10 @@
         <v>1377</v>
       </c>
       <c r="D2811" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E2811" t="s">
         <v>2039</v>
-      </c>
-      <c r="E2811" t="s">
-        <v>2040</v>
       </c>
       <c r="F2811" t="s">
         <v>1814</v>
@@ -76891,7 +76904,7 @@
         <v>1815</v>
       </c>
       <c r="H2811" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2812" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -76906,10 +76919,10 @@
         <v>1377</v>
       </c>
       <c r="D2812" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E2812" t="s">
         <v>2039</v>
-      </c>
-      <c r="E2812" t="s">
-        <v>2040</v>
       </c>
       <c r="F2812" t="s">
         <v>1816</v>
@@ -76918,7 +76931,7 @@
         <v>1817</v>
       </c>
       <c r="H2812" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2813" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -76933,10 +76946,10 @@
         <v>1377</v>
       </c>
       <c r="D2813" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E2813" t="s">
         <v>2039</v>
-      </c>
-      <c r="E2813" t="s">
-        <v>2040</v>
       </c>
       <c r="F2813" t="s">
         <v>1818</v>
@@ -76945,7 +76958,7 @@
         <v>1819</v>
       </c>
       <c r="H2813" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2814" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -76960,10 +76973,10 @@
         <v>1448</v>
       </c>
       <c r="D2814" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E2814" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="H2814" t="s">
         <v>1447</v>
@@ -76981,10 +76994,10 @@
         <v>1448</v>
       </c>
       <c r="D2815" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E2815" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H2815" t="s">
         <v>1447</v>
@@ -77002,10 +77015,10 @@
         <v>1448</v>
       </c>
       <c r="D2816" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E2816" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="H2816" t="s">
         <v>1447</v>
@@ -77023,10 +77036,10 @@
         <v>1448</v>
       </c>
       <c r="D2817" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E2817" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H2817" t="s">
         <v>1447</v>
@@ -77044,10 +77057,10 @@
         <v>1448</v>
       </c>
       <c r="D2818" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E2818" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="H2818" t="s">
         <v>1447</v>
@@ -77065,10 +77078,10 @@
         <v>1448</v>
       </c>
       <c r="D2819" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E2819" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H2819" t="s">
         <v>1447</v>
@@ -77086,10 +77099,10 @@
         <v>1448</v>
       </c>
       <c r="D2820" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="E2820" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="H2820" t="s">
         <v>1447</v>
@@ -77107,10 +77120,10 @@
         <v>1448</v>
       </c>
       <c r="D2821" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E2821" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H2821" t="s">
         <v>1447</v>
@@ -77128,10 +77141,10 @@
         <v>1448</v>
       </c>
       <c r="D2822" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E2822" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="H2822" t="s">
         <v>1447</v>
@@ -77149,10 +77162,10 @@
         <v>1448</v>
       </c>
       <c r="D2823" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E2823" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="H2823" t="s">
         <v>1447</v>
@@ -77170,10 +77183,10 @@
         <v>508</v>
       </c>
       <c r="D2824" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E2824" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="H2824" t="s">
         <v>14</v>
@@ -77191,10 +77204,10 @@
         <v>508</v>
       </c>
       <c r="D2825" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E2825" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="H2825" t="s">
         <v>14</v>
@@ -77212,10 +77225,10 @@
         <v>508</v>
       </c>
       <c r="D2826" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E2826" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="H2826" t="s">
         <v>14</v>
@@ -77233,10 +77246,10 @@
         <v>508</v>
       </c>
       <c r="D2827" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E2827" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H2827" t="s">
         <v>14</v>
@@ -77254,10 +77267,10 @@
         <v>508</v>
       </c>
       <c r="D2828" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E2828" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H2828" t="s">
         <v>14</v>
@@ -77275,10 +77288,10 @@
         <v>508</v>
       </c>
       <c r="D2829" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E2829" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="H2829" t="s">
         <v>14</v>
@@ -77296,10 +77309,10 @@
         <v>508</v>
       </c>
       <c r="D2830" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E2830" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="H2830" t="s">
         <v>14</v>
@@ -77317,10 +77330,10 @@
         <v>508</v>
       </c>
       <c r="D2831" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E2831" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H2831" t="s">
         <v>14</v>
@@ -77338,10 +77351,10 @@
         <v>508</v>
       </c>
       <c r="D2832" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E2832" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="H2832" t="s">
         <v>14</v>
@@ -77359,10 +77372,10 @@
         <v>508</v>
       </c>
       <c r="D2833" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E2833" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="H2833" t="s">
         <v>14</v>
@@ -77380,10 +77393,10 @@
         <v>508</v>
       </c>
       <c r="D2834" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="E2834" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="H2834" t="s">
         <v>14</v>
@@ -77401,10 +77414,10 @@
         <v>508</v>
       </c>
       <c r="D2835" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E2835" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H2835" t="s">
         <v>14</v>
@@ -77422,10 +77435,10 @@
         <v>508</v>
       </c>
       <c r="D2836" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E2836" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="H2836" t="s">
         <v>14</v>
@@ -77443,10 +77456,10 @@
         <v>508</v>
       </c>
       <c r="D2837" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E2837" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="H2837" t="s">
         <v>14</v>
@@ -77464,10 +77477,10 @@
         <v>508</v>
       </c>
       <c r="D2838" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E2838" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="H2838" t="s">
         <v>14</v>
@@ -77485,10 +77498,10 @@
         <v>508</v>
       </c>
       <c r="D2839" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E2839" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="H2839" t="s">
         <v>14</v>
@@ -77506,10 +77519,10 @@
         <v>508</v>
       </c>
       <c r="D2840" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E2840" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="H2840" t="s">
         <v>14</v>
@@ -77527,10 +77540,10 @@
         <v>508</v>
       </c>
       <c r="D2841" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E2841" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="H2841" t="s">
         <v>14</v>
@@ -77548,10 +77561,10 @@
         <v>508</v>
       </c>
       <c r="D2842" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E2842" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="H2842" t="s">
         <v>14</v>
@@ -77569,10 +77582,10 @@
         <v>508</v>
       </c>
       <c r="D2843" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E2843" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="H2843" t="s">
         <v>14</v>
@@ -77590,10 +77603,10 @@
         <v>508</v>
       </c>
       <c r="D2844" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E2844" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="H2844" t="s">
         <v>14</v>
@@ -77614,10 +77627,10 @@
         <v>508</v>
       </c>
       <c r="D2845" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E2845" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="H2845" t="s">
         <v>14</v>
@@ -77635,10 +77648,10 @@
         <v>508</v>
       </c>
       <c r="D2846" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="E2846" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="H2846" t="s">
         <v>14</v>
@@ -77656,10 +77669,10 @@
         <v>508</v>
       </c>
       <c r="D2847" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E2847" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="H2847" t="s">
         <v>14</v>
@@ -77677,10 +77690,10 @@
         <v>508</v>
       </c>
       <c r="D2848" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E2848" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="H2848" t="s">
         <v>14</v>
@@ -77698,10 +77711,10 @@
         <v>508</v>
       </c>
       <c r="D2849" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E2849" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="H2849" t="s">
         <v>14</v>
@@ -77722,10 +77735,10 @@
         <v>508</v>
       </c>
       <c r="D2850" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="E2850" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="H2850" t="s">
         <v>14</v>
@@ -77743,10 +77756,10 @@
         <v>508</v>
       </c>
       <c r="D2851" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E2851" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="H2851" t="s">
         <v>14</v>
@@ -77764,16 +77777,16 @@
         <v>508</v>
       </c>
       <c r="D2852" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E2852" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="H2852" t="s">
         <v>14</v>
       </c>
       <c r="I2852" t="s">
-        <v>1886</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2853" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -77788,10 +77801,10 @@
         <v>508</v>
       </c>
       <c r="D2853" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E2853" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="H2853" t="s">
         <v>14</v>
@@ -77809,10 +77822,10 @@
         <v>508</v>
       </c>
       <c r="D2854" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E2854" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="H2854" t="s">
         <v>14</v>
@@ -77830,10 +77843,10 @@
         <v>508</v>
       </c>
       <c r="D2855" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E2855" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="H2855" t="s">
         <v>14</v>
@@ -77851,10 +77864,10 @@
         <v>508</v>
       </c>
       <c r="D2856" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E2856" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="H2856" t="s">
         <v>14</v>
@@ -77872,10 +77885,10 @@
         <v>508</v>
       </c>
       <c r="D2857" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E2857" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="H2857" t="s">
         <v>14</v>
@@ -77893,10 +77906,10 @@
         <v>508</v>
       </c>
       <c r="D2858" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E2858" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="H2858" t="s">
         <v>14</v>
@@ -77914,10 +77927,10 @@
         <v>508</v>
       </c>
       <c r="D2859" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E2859" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="H2859" t="s">
         <v>14</v>
@@ -77935,10 +77948,10 @@
         <v>508</v>
       </c>
       <c r="D2860" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="E2860" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="H2860" t="s">
         <v>14</v>
@@ -77956,16 +77969,16 @@
         <v>508</v>
       </c>
       <c r="D2861" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E2861" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="H2861" t="s">
         <v>14</v>
       </c>
       <c r="I2861" t="s">
-        <v>1886</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2862" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -77980,10 +77993,10 @@
         <v>508</v>
       </c>
       <c r="D2862" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="E2862" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="H2862" t="s">
         <v>14</v>
@@ -78001,16 +78014,16 @@
         <v>508</v>
       </c>
       <c r="D2863" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E2863" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="H2863" t="s">
         <v>14</v>
       </c>
       <c r="I2863" t="s">
-        <v>1886</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2864" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78025,10 +78038,10 @@
         <v>508</v>
       </c>
       <c r="D2864" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="E2864" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="H2864" t="s">
         <v>14</v>
@@ -78046,10 +78059,10 @@
         <v>508</v>
       </c>
       <c r="D2865" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="E2865" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="H2865" t="s">
         <v>14</v>
@@ -78067,10 +78080,10 @@
         <v>508</v>
       </c>
       <c r="D2866" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E2866" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="H2866" t="s">
         <v>14</v>
@@ -78088,10 +78101,10 @@
         <v>508</v>
       </c>
       <c r="D2867" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="E2867" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="H2867" t="s">
         <v>14</v>
@@ -78109,21 +78122,21 @@
         <v>508</v>
       </c>
       <c r="D2868" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="E2868" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="H2868" t="s">
         <v>14</v>
       </c>
       <c r="I2868" t="s">
-        <v>1886</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2869" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2869" t="str">
-        <f t="shared" ref="A2869:A2915" si="34">C2869&amp;E2869&amp;G2869</f>
+        <f t="shared" ref="A2869:A2917" si="34">C2869&amp;E2869&amp;G2869</f>
         <v>c_bp_multiples_total_btl_330_6_pack</v>
       </c>
       <c r="B2869" t="s">
@@ -78133,10 +78146,10 @@
         <v>508</v>
       </c>
       <c r="D2869" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E2869" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="H2869" t="s">
         <v>14</v>
@@ -78154,16 +78167,16 @@
         <v>508</v>
       </c>
       <c r="D2870" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E2870" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="H2870" t="s">
         <v>14</v>
       </c>
       <c r="I2870" t="s">
-        <v>1886</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2871" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78178,10 +78191,10 @@
         <v>508</v>
       </c>
       <c r="D2871" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E2871" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="H2871" t="s">
         <v>14</v>
@@ -78199,16 +78212,16 @@
         <v>508</v>
       </c>
       <c r="D2872" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="E2872" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="H2872" t="s">
         <v>14</v>
       </c>
       <c r="I2872" t="s">
-        <v>1886</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2873" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78223,10 +78236,10 @@
         <v>508</v>
       </c>
       <c r="D2873" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E2873" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="H2873" t="s">
         <v>14</v>
@@ -78244,10 +78257,10 @@
         <v>508</v>
       </c>
       <c r="D2874" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E2874" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="H2874" t="s">
         <v>14</v>
@@ -78265,10 +78278,10 @@
         <v>508</v>
       </c>
       <c r="D2875" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E2875" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H2875" t="s">
         <v>14</v>
@@ -78286,10 +78299,10 @@
         <v>508</v>
       </c>
       <c r="D2876" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E2876" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H2876" t="s">
         <v>14</v>
@@ -78307,10 +78320,10 @@
         <v>508</v>
       </c>
       <c r="D2877" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E2877" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H2877" t="s">
         <v>14</v>
@@ -78328,10 +78341,10 @@
         <v>508</v>
       </c>
       <c r="D2878" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E2878" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H2878" t="s">
         <v>14</v>
@@ -78349,10 +78362,10 @@
         <v>508</v>
       </c>
       <c r="D2879" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E2879" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H2879" t="s">
         <v>14</v>
@@ -78373,10 +78386,10 @@
         <v>508</v>
       </c>
       <c r="D2880" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E2880" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="H2880" t="s">
         <v>14</v>
@@ -78394,10 +78407,10 @@
         <v>508</v>
       </c>
       <c r="D2881" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E2881" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="H2881" t="s">
         <v>14</v>
@@ -78415,10 +78428,10 @@
         <v>508</v>
       </c>
       <c r="D2882" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E2882" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="H2882" t="s">
         <v>14</v>
@@ -78439,10 +78452,10 @@
         <v>508</v>
       </c>
       <c r="D2883" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E2883" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="H2883" t="s">
         <v>14</v>
@@ -78460,10 +78473,10 @@
         <v>508</v>
       </c>
       <c r="D2884" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E2884" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="H2884" t="s">
         <v>14</v>
@@ -78481,10 +78494,10 @@
         <v>508</v>
       </c>
       <c r="D2885" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E2885" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="H2885" t="s">
         <v>14</v>
@@ -78502,10 +78515,10 @@
         <v>1377</v>
       </c>
       <c r="D2886" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2886" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2886" t="s">
-        <v>2122</v>
       </c>
       <c r="F2886" t="s">
         <v>1806</v>
@@ -78514,7 +78527,7 @@
         <v>1807</v>
       </c>
       <c r="H2886" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2887" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78529,10 +78542,10 @@
         <v>1377</v>
       </c>
       <c r="D2887" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2887" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2887" t="s">
-        <v>2122</v>
       </c>
       <c r="F2887" t="s">
         <v>1808</v>
@@ -78541,7 +78554,7 @@
         <v>1809</v>
       </c>
       <c r="H2887" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2888" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78556,10 +78569,10 @@
         <v>1377</v>
       </c>
       <c r="D2888" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2888" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2888" t="s">
-        <v>2122</v>
       </c>
       <c r="F2888" t="s">
         <v>1810</v>
@@ -78568,7 +78581,7 @@
         <v>1811</v>
       </c>
       <c r="H2888" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2889" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78583,10 +78596,10 @@
         <v>1377</v>
       </c>
       <c r="D2889" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2889" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2889" t="s">
-        <v>2122</v>
       </c>
       <c r="F2889" t="s">
         <v>1812</v>
@@ -78595,7 +78608,7 @@
         <v>1813</v>
       </c>
       <c r="H2889" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2890" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78610,10 +78623,10 @@
         <v>1377</v>
       </c>
       <c r="D2890" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2890" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2890" t="s">
-        <v>2122</v>
       </c>
       <c r="F2890" t="s">
         <v>1814</v>
@@ -78622,7 +78635,7 @@
         <v>1815</v>
       </c>
       <c r="H2890" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2891" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78637,10 +78650,10 @@
         <v>1377</v>
       </c>
       <c r="D2891" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2891" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2891" t="s">
-        <v>2122</v>
       </c>
       <c r="F2891" t="s">
         <v>1816</v>
@@ -78649,7 +78662,7 @@
         <v>1817</v>
       </c>
       <c r="H2891" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2892" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78664,10 +78677,10 @@
         <v>1377</v>
       </c>
       <c r="D2892" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2892" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2892" t="s">
-        <v>2122</v>
       </c>
       <c r="F2892" t="s">
         <v>1818</v>
@@ -78676,7 +78689,7 @@
         <v>1819</v>
       </c>
       <c r="H2892" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2893" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78691,10 +78704,10 @@
         <v>1377</v>
       </c>
       <c r="D2893" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2893" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2893" t="s">
-        <v>2122</v>
       </c>
       <c r="F2893" t="s">
         <v>1855</v>
@@ -78703,7 +78716,7 @@
         <v>1856</v>
       </c>
       <c r="H2893" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2894" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78718,10 +78731,10 @@
         <v>1377</v>
       </c>
       <c r="D2894" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2894" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2894" t="s">
-        <v>2122</v>
       </c>
       <c r="F2894" t="s">
         <v>1857</v>
@@ -78730,7 +78743,7 @@
         <v>1858</v>
       </c>
       <c r="H2894" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2895" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78745,10 +78758,10 @@
         <v>1377</v>
       </c>
       <c r="D2895" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2895" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2895" t="s">
-        <v>2122</v>
       </c>
       <c r="F2895" t="s">
         <v>1859</v>
@@ -78757,7 +78770,7 @@
         <v>1860</v>
       </c>
       <c r="H2895" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2896" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78772,10 +78785,10 @@
         <v>1377</v>
       </c>
       <c r="D2896" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2896" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2896" t="s">
-        <v>2122</v>
       </c>
       <c r="F2896" t="s">
         <v>1861</v>
@@ -78784,7 +78797,7 @@
         <v>1862</v>
       </c>
       <c r="H2896" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2897" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78799,10 +78812,10 @@
         <v>1377</v>
       </c>
       <c r="D2897" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2897" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2897" t="s">
-        <v>2122</v>
       </c>
       <c r="F2897" t="s">
         <v>1863</v>
@@ -78811,7 +78824,7 @@
         <v>1864</v>
       </c>
       <c r="H2897" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2898" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78826,10 +78839,10 @@
         <v>1377</v>
       </c>
       <c r="D2898" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2898" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2898" t="s">
-        <v>2122</v>
       </c>
       <c r="F2898" t="s">
         <v>1865</v>
@@ -78838,7 +78851,7 @@
         <v>1866</v>
       </c>
       <c r="H2898" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2899" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78853,10 +78866,10 @@
         <v>1377</v>
       </c>
       <c r="D2899" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2899" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2899" t="s">
-        <v>2122</v>
       </c>
       <c r="F2899" t="s">
         <v>1867</v>
@@ -78865,7 +78878,7 @@
         <v>1868</v>
       </c>
       <c r="H2899" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2900" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78880,10 +78893,10 @@
         <v>1377</v>
       </c>
       <c r="D2900" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2900" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2900" t="s">
-        <v>2122</v>
       </c>
       <c r="F2900" t="s">
         <v>1381</v>
@@ -78892,7 +78905,7 @@
         <v>1382</v>
       </c>
       <c r="H2900" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2901" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78907,10 +78920,10 @@
         <v>1377</v>
       </c>
       <c r="D2901" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2901" t="s">
         <v>2121</v>
-      </c>
-      <c r="E2901" t="s">
-        <v>2122</v>
       </c>
       <c r="F2901" t="s">
         <v>1671</v>
@@ -78919,7 +78932,7 @@
         <v>1672</v>
       </c>
       <c r="H2901" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="2902" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -78934,10 +78947,10 @@
         <v>1472</v>
       </c>
       <c r="D2902" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E2902" t="s">
         <v>2125</v>
-      </c>
-      <c r="E2902" t="s">
-        <v>2126</v>
       </c>
       <c r="H2902" s="3" t="s">
         <v>1471</v>
@@ -78955,13 +78968,13 @@
         <v>1448</v>
       </c>
       <c r="D2903" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E2903" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="H2903" s="3" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="I2903" t="s">
         <v>1886</v>
@@ -78979,13 +78992,13 @@
         <v>1448</v>
       </c>
       <c r="D2904" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E2904" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H2904" s="3" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="I2904" t="s">
         <v>1791</v>
@@ -79003,13 +79016,13 @@
         <v>1448</v>
       </c>
       <c r="D2905" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E2905" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H2905" s="3" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="I2905" t="s">
         <v>1886</v>
@@ -79027,13 +79040,13 @@
         <v>1448</v>
       </c>
       <c r="D2906" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E2906" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H2906" s="3" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="I2906" t="s">
         <v>1886</v>
@@ -79051,13 +79064,13 @@
         <v>1448</v>
       </c>
       <c r="D2907" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E2907" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="H2907" s="3" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="I2907" t="s">
         <v>1886</v>
@@ -79075,13 +79088,13 @@
         <v>1448</v>
       </c>
       <c r="D2908" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E2908" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="H2908" s="3" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="I2908" t="s">
         <v>1791</v>
@@ -79099,13 +79112,13 @@
         <v>1448</v>
       </c>
       <c r="D2909" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E2909" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="H2909" s="3" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="I2909" t="s">
         <v>1791</v>
@@ -79123,13 +79136,13 @@
         <v>1448</v>
       </c>
       <c r="D2910" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E2910" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="H2910" s="3" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="I2910" t="s">
         <v>1791</v>
@@ -79150,13 +79163,13 @@
         <v>1049</v>
       </c>
       <c r="E2911" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F2911" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G2911" t="s">
         <v>2138</v>
-      </c>
-      <c r="F2911" t="s">
-        <v>2135</v>
-      </c>
-      <c r="G2911" t="s">
-        <v>2139</v>
       </c>
       <c r="H2911" t="s">
         <v>1082</v>
@@ -79177,13 +79190,13 @@
         <v>1049</v>
       </c>
       <c r="E2912" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F2912" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="G2912" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="H2912" t="s">
         <v>1082</v>
@@ -79204,13 +79217,13 @@
         <v>1049</v>
       </c>
       <c r="E2913" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F2913" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="G2913" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="H2913" t="s">
         <v>1082</v>
@@ -79222,19 +79235,19 @@
         <v>market_impulse_total_distribution</v>
       </c>
       <c r="B2914" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C2914" t="s">
         <v>2142</v>
       </c>
-      <c r="C2914" t="s">
+      <c r="D2914" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E2914" t="s">
         <v>2143</v>
       </c>
-      <c r="D2914" t="s">
-        <v>2146</v>
-      </c>
-      <c r="E2914" t="s">
-        <v>2144</v>
-      </c>
       <c r="H2914" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="2915" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -79243,26 +79256,76 @@
         <v>market_multiples_total_distribution</v>
       </c>
       <c r="B2915" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C2915" t="s">
         <v>2142</v>
       </c>
-      <c r="C2915" t="s">
-        <v>2143</v>
-      </c>
       <c r="D2915" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E2915" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H2915" t="s">
         <v>2147</v>
       </c>
-      <c r="E2915" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H2915" t="s">
+    </row>
+    <row r="2916" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2916" t="str">
+        <f t="shared" si="34"/>
+        <v>dummy_pna0_launch</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E2916" t="s">
         <v>2148</v>
       </c>
+      <c r="H2916" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2917" t="str">
+        <f t="shared" si="34"/>
+        <v>covid_third_lockdown_decay</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E2917" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H2917" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2918" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H2918" t="s">
+        <v>2152</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2915" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
+  <autoFilter ref="A1:I2917" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
     <filterColumn colId="0">
       <filters>
-        <filter val="e_unemployment"/>
+        <filter val="intercept"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -79273,21 +79336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2B45C0EA743584A8108406922405CD9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28eea7f25acf351aeb308c66c2a0cc34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f859e2c-e6b3-43fd-84f3-2e79f1815da7" xmlns:ns3="af2a5c73-a52b-4877-934f-731a7896a6a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c229cfe8c0dd97038f86cb311aeef9c" ns2:_="" ns3:_="">
     <xsd:import namespace="3f859e2c-e6b3-43fd-84f3-2e79f1815da7"/>
@@ -79464,24 +79512,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BDD481-501C-4200-9B28-7D89CE3D9024}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -79498,4 +79544,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1886" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49103BA5-425D-423D-A70A-B2E979D6B74B}"/>
+  <xr:revisionPtr revIDLastSave="1887" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04BCF18-4E56-4E82-BF44-38D177E80EFA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{76ACBFB2-FDB9-4F29-83E0-3CEBBBD05A87}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="taxonomy" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">taxonomy!$A$1:$I$2917</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">taxonomy!$A$1:$I$2918</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -7020,7 +7020,7 @@
   <dimension ref="A1:I2918"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A921" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2919" sqref="H2919"/>
     </sheetView>
   </sheetViews>
@@ -23569,7 +23569,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="747" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1139</v>
       </c>
@@ -23591,7 +23591,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="748" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1145</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="749" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1148</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="750" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1151</v>
       </c>
@@ -23657,7 +23657,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="751" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1154</v>
       </c>
@@ -23679,7 +23679,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="752" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1157</v>
       </c>
@@ -23701,7 +23701,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="753" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1160</v>
       </c>
@@ -23723,7 +23723,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="754" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1163</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="755" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1166</v>
       </c>
@@ -23767,7 +23767,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="756" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1169</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="757" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1172</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="758" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1175</v>
       </c>
@@ -23833,7 +23833,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="759" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1178</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="760" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1181</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="761" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1184</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="762" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1187</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="763" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1190</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="764" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1193</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="765" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1196</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="766" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1199</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="767" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1202</v>
       </c>
@@ -24031,7 +24031,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="768" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1205</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="769" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1208</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="770" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1211</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1214</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="772" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1217</v>
       </c>
@@ -24141,7 +24141,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="773" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1220</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="774" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1223</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="775" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1226</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="776" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1229</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="777" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1232</v>
       </c>
@@ -24251,7 +24251,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="778" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1235</v>
       </c>
@@ -24273,7 +24273,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="779" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1238</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="780" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1241</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="781" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1243</v>
       </c>
@@ -24339,7 +24339,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="782" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1244</v>
       </c>
@@ -24361,7 +24361,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="783" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1245</v>
       </c>
@@ -24383,7 +24383,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="784" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1246</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="785" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1247</v>
       </c>
@@ -24427,7 +24427,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="786" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1248</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="787" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1249</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="788" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1250</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="789" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1251</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="790" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1252</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="791" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1253</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="792" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1254</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="793" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1255</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="794" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1256</v>
       </c>
@@ -24625,7 +24625,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="795" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1257</v>
       </c>
@@ -24647,7 +24647,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="796" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1258</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="797" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1259</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="798" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1260</v>
       </c>
@@ -24713,7 +24713,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="799" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1261</v>
       </c>
@@ -24735,7 +24735,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="800" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1262</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="801" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1263</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="802" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1264</v>
       </c>
@@ -24801,7 +24801,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="803" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1265</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="804" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1266</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="805" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1267</v>
       </c>
@@ -24867,7 +24867,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="806" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1268</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="807" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1269</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="808" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1270</v>
       </c>
@@ -24933,7 +24933,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="809" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1271</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="810" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1272</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="811" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1273</v>
       </c>
@@ -24999,7 +24999,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="812" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1274</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="813" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1275</v>
       </c>
@@ -25041,7 +25041,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="814" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1279</v>
       </c>
@@ -25061,7 +25061,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="815" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1280</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="816" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1281</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="817" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1282</v>
       </c>
@@ -25121,7 +25121,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="818" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1283</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="819" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1284</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="820" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1285</v>
       </c>
@@ -25181,7 +25181,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="821" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1286</v>
       </c>
@@ -25201,7 +25201,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="822" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1287</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="823" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1288</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="824" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1289</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="825" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1290</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="826" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1291</v>
       </c>
@@ -25301,7 +25301,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="827" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1292</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="828" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1293</v>
       </c>
@@ -25341,7 +25341,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="829" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1294</v>
       </c>
@@ -25361,7 +25361,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="830" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1295</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="831" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1296</v>
       </c>
@@ -25401,7 +25401,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="832" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1297</v>
       </c>
@@ -25421,7 +25421,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="833" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1298</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="834" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1299</v>
       </c>
@@ -25461,7 +25461,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="835" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1300</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="836" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1301</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="837" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1302</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="838" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1303</v>
       </c>
@@ -25541,7 +25541,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="839" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1304</v>
       </c>
@@ -25561,7 +25561,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="840" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1305</v>
       </c>
@@ -25581,7 +25581,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="841" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1306</v>
       </c>
@@ -25601,7 +25601,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="842" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1307</v>
       </c>
@@ -25621,7 +25621,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="843" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1308</v>
       </c>
@@ -25641,7 +25641,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="844" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1309</v>
       </c>
@@ -25661,7 +25661,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="845" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1310</v>
       </c>
@@ -25681,7 +25681,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="846" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1311</v>
       </c>
@@ -25703,7 +25703,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="847" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1315</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="848" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1316</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="849" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1317</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="850" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1318</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="851" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1319</v>
       </c>
@@ -25813,7 +25813,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="852" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1320</v>
       </c>
@@ -25835,7 +25835,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="853" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1321</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="854" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1322</v>
       </c>
@@ -25879,7 +25879,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="855" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1323</v>
       </c>
@@ -25901,7 +25901,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="856" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1324</v>
       </c>
@@ -25923,7 +25923,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="857" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1325</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="858" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1326</v>
       </c>
@@ -25967,7 +25967,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="859" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1327</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="860" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1328</v>
       </c>
@@ -26011,7 +26011,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="861" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1329</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="862" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1330</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="863" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1331</v>
       </c>
@@ -26077,7 +26077,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="864" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1332</v>
       </c>
@@ -26099,7 +26099,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="865" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1333</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="866" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1334</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="867" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1335</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="868" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1336</v>
       </c>
@@ -26187,7 +26187,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="869" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1337</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="870" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1338</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="871" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1339</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="872" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1340</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="873" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1341</v>
       </c>
@@ -26297,7 +26297,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="874" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1342</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="875" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1343</v>
       </c>
@@ -26341,7 +26341,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="876" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1344</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="877" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1345</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="878" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1346</v>
       </c>
@@ -26503,7 +26503,7 @@
       </c>
       <c r="I882"/>
     </row>
-    <row r="883" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A883" t="str">
         <f t="shared" si="0"/>
         <v>own_featdisp_multiples_pna_glass_330ml_18pack</v>
@@ -26527,7 +26527,7 @@
       </c>
       <c r="I883"/>
     </row>
-    <row r="884" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A884" t="str">
         <f t="shared" si="0"/>
         <v>own_featdisp_multiples_pna_glass_330ml_24pack</v>
@@ -26623,7 +26623,7 @@
       </c>
       <c r="I887"/>
     </row>
-    <row r="888" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A888" t="str">
         <f t="shared" si="0"/>
         <v>own_featdisp_multiples_pna_can_330ml_6pack</v>
@@ -26647,7 +26647,7 @@
       </c>
       <c r="I888"/>
     </row>
-    <row r="889" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A889" t="str">
         <f t="shared" si="0"/>
         <v>own_featdisp_multiples_pna_can_330ml_10pack</v>
@@ -26839,7 +26839,7 @@
       </c>
       <c r="I896"/>
     </row>
-    <row r="897" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A897" t="str">
         <f t="shared" si="0"/>
         <v>own_feat_multiples_pna_glass_330ml_18pack</v>
@@ -26863,7 +26863,7 @@
       </c>
       <c r="I897"/>
     </row>
-    <row r="898" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A898" t="str">
         <f t="shared" si="0"/>
         <v>own_feat_multiples_pna_glass_330ml_24pack</v>
@@ -26959,7 +26959,7 @@
       </c>
       <c r="I901"/>
     </row>
-    <row r="902" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A902" t="str">
         <f t="shared" si="0"/>
         <v>own_feat_multiples_pna_can_330ml_6pack</v>
@@ -26983,7 +26983,7 @@
       </c>
       <c r="I902"/>
     </row>
-    <row r="903" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A903" t="str">
         <f t="shared" si="0"/>
         <v>own_feat_multiples_pna_can_330ml_10pack</v>
@@ -27175,7 +27175,7 @@
       </c>
       <c r="I910"/>
     </row>
-    <row r="911" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A911" t="str">
         <f t="shared" si="0"/>
         <v>own_disp_multiples_pna_glass_330ml_18pack</v>
@@ -27199,7 +27199,7 @@
       </c>
       <c r="I911"/>
     </row>
-    <row r="912" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A912" t="str">
         <f t="shared" si="0"/>
         <v>own_disp_multiples_pna_glass_330ml_24pack</v>
@@ -27295,7 +27295,7 @@
       </c>
       <c r="I915"/>
     </row>
-    <row r="916" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A916" t="str">
         <f t="shared" si="0"/>
         <v>own_disp_multiples_pna_can_330ml_6pack</v>
@@ -27319,7 +27319,7 @@
       </c>
       <c r="I916"/>
     </row>
-    <row r="917" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A917" t="str">
         <f t="shared" si="0"/>
         <v>own_disp_multiples_pna_can_330ml_10pack</v>
@@ -27415,7 +27415,7 @@
       </c>
       <c r="I920"/>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>1374</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="939" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" t="str">
         <f t="shared" si="2"/>
         <v>m_ownfb_uk_vis</v>
@@ -27890,7 +27890,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="940" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" t="str">
         <f t="shared" si="2"/>
         <v>m_ownig_uk_vis</v>
@@ -27917,7 +27917,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="941" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" t="str">
         <f t="shared" si="2"/>
         <v>m_ownfb_global_vis</v>
@@ -27944,7 +27944,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="942" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" t="str">
         <f t="shared" si="2"/>
         <v>m_ownig_global_vis</v>
@@ -32789,7 +32789,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="1168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1168" t="str">
         <f t="shared" si="5"/>
         <v>covid_third_lockdown</v>
@@ -79292,7 +79292,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="2917" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2917" t="str">
         <f t="shared" si="34"/>
         <v>covid_third_lockdown_decay</v>
@@ -79313,7 +79313,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="2918" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2918" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2918" t="s">
         <v>2152</v>
       </c>
@@ -79322,10 +79322,159 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2917" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
+  <autoFilter ref="A1:I2918" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
     <filterColumn colId="0">
       <filters>
-        <filter val="intercept"/>
+        <filter val="covid_third_lockdown"/>
+        <filter val="covid_third_lockdown_decay"/>
+        <filter val="m_ownfb_global_vis"/>
+        <filter val="m_ownfb_uk_vis"/>
+        <filter val="m_ownig_global_vis"/>
+        <filter val="m_ownig_uk_vis"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_single"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_500_ml_single"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_620_ml_single"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_can_330_ml_10_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_can_330_ml_6_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_can_330_ml_single"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_can_440_ml_4_pack"/>
+        <filter val="own_avp_impulse_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_single"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_500_ml_single"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_620_ml_single"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_can_330_ml_10_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_can_330_ml_6_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_can_440_ml_4_pack"/>
+        <filter val="own_avp_multiples_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_single"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_500_ml_single"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_620_ml_single"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_can_330_ml_10_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_can_330_ml_6_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_can_330_ml_single"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_can_440_ml_4_pack"/>
+        <filter val="own_bp_impulse_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_single"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_500_ml_single"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_620_ml_single"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_can_330_ml_10_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_can_330_ml_6_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_can_440_ml_4_pack"/>
+        <filter val="own_bp_multiples_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_single"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_500_ml_single"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_620_ml_single"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_can_330_ml_10_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_can_330_ml_6_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_can_330_ml_single"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_can_440_ml_4_pack"/>
+        <filter val="own_discount_impulse_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_single"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_500_ml_single"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_620_ml_single"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_can_330_ml_10_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_can_330_ml_6_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_can_440_ml_4_pack"/>
+        <filter val="own_discount_multiples_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
+        <filter val="own_disp_multiples_pna_can_330ml_10pack"/>
+        <filter val="own_disp_multiples_pna_can_330ml_6pack"/>
+        <filter val="own_disp_multiples_pna_glass_330ml_18pack"/>
+        <filter val="own_disp_multiples_pna_glass_330ml_24pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_single"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_500_ml_single"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_620_ml_single"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_can_330_ml_10_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_can_330_ml_6_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_can_330_ml_single"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_can_440_ml_4_pack"/>
+        <filter val="own_dist_impulse_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_single"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_500_ml_single"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_620_ml_single"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_can_330_ml_10_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_can_330_ml_6_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_can_440_ml_4_pack"/>
+        <filter val="own_dist_multiples_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
+        <filter val="own_feat_multiples_pna_can_330ml_10pack"/>
+        <filter val="own_feat_multiples_pna_can_330ml_6pack"/>
+        <filter val="own_feat_multiples_pna_glass_330ml_18pack"/>
+        <filter val="own_feat_multiples_pna_glass_330ml_24pack"/>
+        <filter val="own_featdisp_multiples_pna_can_330ml_10pack"/>
+        <filter val="own_featdisp_multiples_pna_can_330ml_6pack"/>
+        <filter val="own_featdisp_multiples_pna_glass_330ml_18pack"/>
+        <filter val="own_featdisp_multiples_pna_glass_330ml_24pack"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -79513,18 +79662,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79547,18 +79696,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1887" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04BCF18-4E56-4E82-BF44-38D177E80EFA}"/>
+  <xr:revisionPtr revIDLastSave="1904" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358638EF-8C09-42CE-BFB6-4331C3999890}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{76ACBFB2-FDB9-4F29-83E0-3CEBBBD05A87}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18501" uniqueCount="2153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18731" uniqueCount="2203">
   <si>
     <t>variable_name</t>
   </si>
@@ -6557,6 +6557,156 @@
   </si>
   <si>
     <t>actuals</t>
+  </si>
+  <si>
+    <t>Total Category Level Data</t>
+  </si>
+  <si>
+    <t>cat_</t>
+  </si>
+  <si>
+    <t>volume multiples glass pack</t>
+  </si>
+  <si>
+    <t>volume multiples can pack</t>
+  </si>
+  <si>
+    <t>volume impulse glass pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_single</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_single</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_single</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_single</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_2_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_3_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_4_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_6_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_8_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_10_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_12_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_15_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_18_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_20_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_glass_24_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_2_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_4_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_6_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_8_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_10_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_12_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_15_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_18_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_20_pack</t>
+  </si>
+  <si>
+    <t>vol_multiples_can_24_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_2_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_3_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_4_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_5_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_6_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_10_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_12_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_15_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_8_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_18_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_glass_20_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_24_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_4_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_6_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_10_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_12_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_15_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_8_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_18_pack</t>
+  </si>
+  <si>
+    <t>vol_impulse_can_20_pack</t>
   </si>
 </sst>
 </file>
@@ -7017,11 +7167,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I2918"/>
+  <dimension ref="A1:I2964"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2919" sqref="H2919"/>
+      <pane ySplit="1" topLeftCell="A942" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2946" sqref="A2946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -79319,6 +79469,972 @@
       </c>
       <c r="H2918" t="s">
         <v>2152</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2919" t="str">
+        <f t="shared" ref="A2919:A2964" si="35">C2919&amp;E2919&amp;G2919</f>
+        <v>cat_vol_multiples_glass_single</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2919" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H2919" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2920" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_2_pack</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2920" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H2920" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2921" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_3_pack</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2921" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H2921" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2922" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_4_pack</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2922" t="s">
+        <v>2164</v>
+      </c>
+      <c r="H2922" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2923" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_6_pack</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2923" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H2923" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2924" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_8_pack</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2924" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H2924" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2925" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_10_pack</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2925" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H2925" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2926" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_12_pack</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2926" t="s">
+        <v>2168</v>
+      </c>
+      <c r="H2926" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2927" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_15_pack</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2927" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H2927" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2928" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_18_pack</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2928" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H2928" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2929" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_20_pack</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2929" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H2929" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2930" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_glass_24_pack</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E2930" t="s">
+        <v>2172</v>
+      </c>
+      <c r="H2930" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2931" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_single</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2931" t="s">
+        <v>2159</v>
+      </c>
+      <c r="H2931" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2932" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_2_pack</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2932" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H2932" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2933" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_4_pack</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2933" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H2933" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2934" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_6_pack</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2934" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H2934" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2935" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_8_pack</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2935" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H2935" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2936" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_10_pack</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2936" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H2936" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2937" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_12_pack</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2937" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H2937" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2938" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_15_pack</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2938" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H2938" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2939" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_18_pack</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2939" t="s">
+        <v>2180</v>
+      </c>
+      <c r="H2939" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2940" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_20_pack</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2940" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H2940" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2941" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_multiples_can_24_pack</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2941" t="s">
+        <v>2182</v>
+      </c>
+      <c r="H2941" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2942" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_single</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2942" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H2942" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2943" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_2_pack</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2943" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H2943" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2944" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_3_pack</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2944" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H2944" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2945" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_4_pack</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2945" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H2945" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2946" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_5_pack</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2946" t="s">
+        <v>2186</v>
+      </c>
+      <c r="H2946" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2947" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_6_pack</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2947" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H2947" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2948" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_10_pack</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2948" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H2948" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2949" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_12_pack</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2949" t="s">
+        <v>2189</v>
+      </c>
+      <c r="H2949" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2950" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_15_pack</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2950" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H2950" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2951" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_8_pack</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2951" t="s">
+        <v>2191</v>
+      </c>
+      <c r="H2951" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2952" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_18_pack</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2952" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H2952" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2953" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_glass_20_pack</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E2953" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H2953" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2954" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_24_pack</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2954" t="s">
+        <v>2194</v>
+      </c>
+      <c r="H2954" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2955" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_single</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2955" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H2955" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2956" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_4_pack</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2956" t="s">
+        <v>2195</v>
+      </c>
+      <c r="H2956" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2957" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_6_pack</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2957" t="s">
+        <v>2196</v>
+      </c>
+      <c r="H2957" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2958" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_10_pack</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2958" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H2958" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2959" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_12_pack</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2959" t="s">
+        <v>2198</v>
+      </c>
+      <c r="H2959" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2960" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_15_pack</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H2960" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2961" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_8_pack</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H2961" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2962" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_18_pack</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H2962" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2963" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_20_pack</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>2202</v>
+      </c>
+      <c r="H2963" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2964" t="str">
+        <f t="shared" si="35"/>
+        <v>cat_vol_impulse_can_24_pack</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>2194</v>
+      </c>
+      <c r="H2964" t="s">
+        <v>2141</v>
       </c>
     </row>
   </sheetData>
@@ -79485,6 +80601,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2B45C0EA743584A8108406922405CD9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28eea7f25acf351aeb308c66c2a0cc34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f859e2c-e6b3-43fd-84f3-2e79f1815da7" xmlns:ns3="af2a5c73-a52b-4877-934f-731a7896a6a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c229cfe8c0dd97038f86cb311aeef9c" ns2:_="" ns3:_="">
     <xsd:import namespace="3f859e2c-e6b3-43fd-84f3-2e79f1815da7"/>
@@ -79661,22 +80786,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BDD481-501C-4200-9B28-7D89CE3D9024}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -79695,19 +80819,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1904" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358638EF-8C09-42CE-BFB6-4331C3999890}"/>
+  <xr:revisionPtr revIDLastSave="1969" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00DC9796-194E-4768-A968-854D376A6123}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{76ACBFB2-FDB9-4F29-83E0-3CEBBBD05A87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{76ACBFB2-FDB9-4F29-83E0-3CEBBBD05A87}"/>
   </bookViews>
   <sheets>
     <sheet name="guide" sheetId="2" r:id="rId1"/>
     <sheet name="taxonomy" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">taxonomy!$A$1:$I$2918</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">taxonomy!$A$1:$I$3003</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18731" uniqueCount="2203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18903" uniqueCount="2242">
   <si>
     <t>variable_name</t>
   </si>
@@ -6707,6 +6707,123 @@
   </si>
   <si>
     <t>vol_impulse_can_20_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_glass_single</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_glass_18_24pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_can_6_10pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_single</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_1_4pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_10_12pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_18_24pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_can_1_10pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol00_multiples_glass_4_12</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol00_multiples_glass_small_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol00_multiples_glass_medium_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol00_impulse_glass_small_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol00_impulse_glass_medium_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_can_single</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_can_single</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol00_impulse_glass_1_12</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_glass_4_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_glass_10_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_glass_12_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_glass_small_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_glass_medium_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_glass_large_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_can_small_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_can_medium_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_multiples_can_large_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_small_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_medium_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_large_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_can_small_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_can_medium_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_can_large_pack</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol00_multiples_glass_4_12_v1</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol00_impulse_glass_1_12_v1</t>
+  </si>
+  <si>
+    <t>mod_discount_multiples_pna_glass_620ml_1pack_v1</t>
+  </si>
+  <si>
+    <t>s_boxing_day_lag1</t>
+  </si>
+  <si>
+    <t>boxing day 1 lag</t>
+  </si>
+  <si>
+    <t>boxing_day_lag1</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_single_v1</t>
+  </si>
+  <si>
+    <t>own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack_v1</t>
   </si>
 </sst>
 </file>
@@ -7167,11 +7284,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I2964"/>
+  <dimension ref="A1:I3003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A942" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2946" sqref="A2946"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2975" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3004" sqref="I3004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7545,7 +7662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -7567,7 +7684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -7589,7 +7706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -7611,7 +7728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -7633,7 +7750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -7655,7 +7772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -7677,7 +7794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -7699,7 +7816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -7721,7 +7838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -7743,7 +7860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -7765,7 +7882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -7787,7 +7904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -7809,7 +7926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -7831,7 +7948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -7853,7 +7970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -7875,7 +7992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -7896,6 +8013,9 @@
       <c r="H32" t="s">
         <v>14</v>
       </c>
+      <c r="I32" s="1" t="s">
+        <v>1886</v>
+      </c>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -23719,7 +23839,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="747" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1139</v>
       </c>
@@ -23741,7 +23861,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="748" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1145</v>
       </c>
@@ -23763,7 +23883,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="749" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1148</v>
       </c>
@@ -23785,7 +23905,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="750" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1151</v>
       </c>
@@ -23807,7 +23927,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="751" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1154</v>
       </c>
@@ -23829,7 +23949,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="752" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1157</v>
       </c>
@@ -23851,7 +23971,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="753" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1160</v>
       </c>
@@ -23873,7 +23993,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="754" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1163</v>
       </c>
@@ -23895,7 +24015,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="755" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1166</v>
       </c>
@@ -23917,7 +24037,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="756" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1169</v>
       </c>
@@ -23939,7 +24059,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="757" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1172</v>
       </c>
@@ -23961,7 +24081,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="758" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1175</v>
       </c>
@@ -23983,7 +24103,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="759" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1178</v>
       </c>
@@ -24005,7 +24125,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="760" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1181</v>
       </c>
@@ -24027,7 +24147,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="761" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1184</v>
       </c>
@@ -24049,7 +24169,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="762" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1187</v>
       </c>
@@ -24071,7 +24191,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="763" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1190</v>
       </c>
@@ -24093,7 +24213,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="764" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1193</v>
       </c>
@@ -24115,7 +24235,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="765" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1196</v>
       </c>
@@ -24137,7 +24257,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="766" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1199</v>
       </c>
@@ -24159,7 +24279,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="767" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1202</v>
       </c>
@@ -24181,7 +24301,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="768" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1205</v>
       </c>
@@ -24203,7 +24323,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="769" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1208</v>
       </c>
@@ -24225,7 +24345,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="770" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1211</v>
       </c>
@@ -24247,7 +24367,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1214</v>
       </c>
@@ -24269,7 +24389,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="772" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1217</v>
       </c>
@@ -24291,7 +24411,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="773" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1220</v>
       </c>
@@ -24313,7 +24433,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="774" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1223</v>
       </c>
@@ -24335,7 +24455,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="775" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1226</v>
       </c>
@@ -24357,7 +24477,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="776" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1229</v>
       </c>
@@ -24379,7 +24499,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="777" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1232</v>
       </c>
@@ -24401,7 +24521,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="778" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1235</v>
       </c>
@@ -24423,7 +24543,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="779" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1238</v>
       </c>
@@ -24445,7 +24565,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="780" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1241</v>
       </c>
@@ -24467,7 +24587,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="781" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1243</v>
       </c>
@@ -24489,7 +24609,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="782" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1244</v>
       </c>
@@ -24511,7 +24631,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="783" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1245</v>
       </c>
@@ -24533,7 +24653,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="784" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1246</v>
       </c>
@@ -24555,7 +24675,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="785" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1247</v>
       </c>
@@ -24577,7 +24697,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="786" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1248</v>
       </c>
@@ -24599,7 +24719,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="787" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1249</v>
       </c>
@@ -24621,7 +24741,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="788" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1250</v>
       </c>
@@ -24643,7 +24763,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="789" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1251</v>
       </c>
@@ -24665,7 +24785,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="790" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1252</v>
       </c>
@@ -24687,7 +24807,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="791" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1253</v>
       </c>
@@ -24709,7 +24829,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="792" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1254</v>
       </c>
@@ -24728,10 +24848,13 @@
       <c r="F792"/>
       <c r="G792"/>
       <c r="H792" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="793" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+      <c r="I792" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1255</v>
       </c>
@@ -24753,7 +24876,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="794" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1256</v>
       </c>
@@ -24775,7 +24898,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="795" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1257</v>
       </c>
@@ -24797,7 +24920,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="796" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1258</v>
       </c>
@@ -24819,7 +24942,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="797" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1259</v>
       </c>
@@ -24841,7 +24964,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="798" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1260</v>
       </c>
@@ -24863,7 +24986,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="799" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1261</v>
       </c>
@@ -24885,7 +25008,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="800" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1262</v>
       </c>
@@ -24907,7 +25030,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="801" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1263</v>
       </c>
@@ -24929,7 +25052,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="802" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1264</v>
       </c>
@@ -24951,7 +25074,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="803" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1265</v>
       </c>
@@ -24973,7 +25096,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="804" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1266</v>
       </c>
@@ -24995,7 +25118,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="805" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1267</v>
       </c>
@@ -25017,7 +25140,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="806" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1268</v>
       </c>
@@ -25039,7 +25162,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="807" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1269</v>
       </c>
@@ -25061,7 +25184,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="808" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1270</v>
       </c>
@@ -25083,7 +25206,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="809" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1271</v>
       </c>
@@ -25102,10 +25225,13 @@
       <c r="F809"/>
       <c r="G809"/>
       <c r="H809" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="810" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+      <c r="I809" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1272</v>
       </c>
@@ -25127,7 +25253,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="811" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1273</v>
       </c>
@@ -25149,7 +25275,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="812" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1274</v>
       </c>
@@ -25171,7 +25297,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="813" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1275</v>
       </c>
@@ -25191,7 +25317,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="814" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1279</v>
       </c>
@@ -25208,10 +25334,10 @@
       <c r="F814"/>
       <c r="G814"/>
       <c r="H814" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="815" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1280</v>
       </c>
@@ -25231,7 +25357,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="816" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1281</v>
       </c>
@@ -25251,7 +25377,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="817" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1282</v>
       </c>
@@ -25271,7 +25397,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="818" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1283</v>
       </c>
@@ -25291,7 +25417,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="819" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1284</v>
       </c>
@@ -25311,7 +25437,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="820" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1285</v>
       </c>
@@ -25331,7 +25457,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="821" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1286</v>
       </c>
@@ -25351,7 +25477,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="822" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1287</v>
       </c>
@@ -25371,7 +25497,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="823" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1288</v>
       </c>
@@ -25391,7 +25517,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="824" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1289</v>
       </c>
@@ -25411,7 +25537,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="825" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1290</v>
       </c>
@@ -25431,7 +25557,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="826" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1291</v>
       </c>
@@ -25451,7 +25577,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="827" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1292</v>
       </c>
@@ -25471,7 +25597,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="828" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1293</v>
       </c>
@@ -25491,7 +25617,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="829" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1294</v>
       </c>
@@ -25511,7 +25637,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="830" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1295</v>
       </c>
@@ -25531,7 +25657,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="831" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1296</v>
       </c>
@@ -25551,7 +25677,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="832" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1297</v>
       </c>
@@ -25571,7 +25697,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="833" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1298</v>
       </c>
@@ -25591,7 +25717,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="834" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1299</v>
       </c>
@@ -25611,7 +25737,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="835" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1300</v>
       </c>
@@ -25631,7 +25757,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="836" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1301</v>
       </c>
@@ -25651,7 +25777,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="837" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1302</v>
       </c>
@@ -25671,7 +25797,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="838" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1303</v>
       </c>
@@ -25691,7 +25817,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="839" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1304</v>
       </c>
@@ -25711,7 +25837,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="840" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1305</v>
       </c>
@@ -25731,7 +25857,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="841" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1306</v>
       </c>
@@ -25751,7 +25877,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="842" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1307</v>
       </c>
@@ -25771,7 +25897,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="843" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1308</v>
       </c>
@@ -25791,7 +25917,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="844" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1309</v>
       </c>
@@ -25811,7 +25937,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="845" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1310</v>
       </c>
@@ -25831,7 +25957,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="846" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1311</v>
       </c>
@@ -25853,7 +25979,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="847" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1315</v>
       </c>
@@ -25875,7 +26001,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="848" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1316</v>
       </c>
@@ -25897,7 +26023,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="849" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1317</v>
       </c>
@@ -25919,7 +26045,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="850" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1318</v>
       </c>
@@ -25941,7 +26067,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="851" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1319</v>
       </c>
@@ -25963,7 +26089,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="852" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1320</v>
       </c>
@@ -25985,7 +26111,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="853" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1321</v>
       </c>
@@ -26007,7 +26133,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="854" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1322</v>
       </c>
@@ -26029,7 +26155,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="855" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1323</v>
       </c>
@@ -26051,7 +26177,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="856" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1324</v>
       </c>
@@ -26073,7 +26199,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="857" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1325</v>
       </c>
@@ -26095,7 +26221,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="858" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1326</v>
       </c>
@@ -26117,7 +26243,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="859" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1327</v>
       </c>
@@ -26139,7 +26265,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="860" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1328</v>
       </c>
@@ -26161,7 +26287,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="861" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1329</v>
       </c>
@@ -26183,7 +26309,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="862" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1330</v>
       </c>
@@ -26205,7 +26331,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="863" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1331</v>
       </c>
@@ -26227,7 +26353,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="864" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1332</v>
       </c>
@@ -26249,7 +26375,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="865" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1333</v>
       </c>
@@ -26271,7 +26397,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="866" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1334</v>
       </c>
@@ -26293,7 +26419,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="867" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1335</v>
       </c>
@@ -26315,7 +26441,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="868" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1336</v>
       </c>
@@ -26337,7 +26463,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="869" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1337</v>
       </c>
@@ -26359,7 +26485,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="870" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1338</v>
       </c>
@@ -26381,7 +26507,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="871" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1339</v>
       </c>
@@ -26403,7 +26529,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="872" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1340</v>
       </c>
@@ -26425,7 +26551,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="873" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1341</v>
       </c>
@@ -26447,7 +26573,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="874" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1342</v>
       </c>
@@ -26469,7 +26595,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="875" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1343</v>
       </c>
@@ -26491,7 +26617,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="876" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1344</v>
       </c>
@@ -26513,7 +26639,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="877" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1345</v>
       </c>
@@ -26535,7 +26661,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="878" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1346</v>
       </c>
@@ -26653,7 +26779,7 @@
       </c>
       <c r="I882"/>
     </row>
-    <row r="883" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883" t="str">
         <f t="shared" si="0"/>
         <v>own_featdisp_multiples_pna_glass_330ml_18pack</v>
@@ -26677,7 +26803,7 @@
       </c>
       <c r="I883"/>
     </row>
-    <row r="884" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" t="str">
         <f t="shared" si="0"/>
         <v>own_featdisp_multiples_pna_glass_330ml_24pack</v>
@@ -26773,7 +26899,7 @@
       </c>
       <c r="I887"/>
     </row>
-    <row r="888" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888" t="str">
         <f t="shared" si="0"/>
         <v>own_featdisp_multiples_pna_can_330ml_6pack</v>
@@ -26797,7 +26923,7 @@
       </c>
       <c r="I888"/>
     </row>
-    <row r="889" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889" t="str">
         <f t="shared" si="0"/>
         <v>own_featdisp_multiples_pna_can_330ml_10pack</v>
@@ -26989,7 +27115,7 @@
       </c>
       <c r="I896"/>
     </row>
-    <row r="897" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" t="str">
         <f t="shared" si="0"/>
         <v>own_feat_multiples_pna_glass_330ml_18pack</v>
@@ -27013,7 +27139,7 @@
       </c>
       <c r="I897"/>
     </row>
-    <row r="898" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" t="str">
         <f t="shared" si="0"/>
         <v>own_feat_multiples_pna_glass_330ml_24pack</v>
@@ -27109,7 +27235,7 @@
       </c>
       <c r="I901"/>
     </row>
-    <row r="902" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" t="str">
         <f t="shared" si="0"/>
         <v>own_feat_multiples_pna_can_330ml_6pack</v>
@@ -27133,7 +27259,7 @@
       </c>
       <c r="I902"/>
     </row>
-    <row r="903" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" t="str">
         <f t="shared" si="0"/>
         <v>own_feat_multiples_pna_can_330ml_10pack</v>
@@ -27325,7 +27451,7 @@
       </c>
       <c r="I910"/>
     </row>
-    <row r="911" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" t="str">
         <f t="shared" si="0"/>
         <v>own_disp_multiples_pna_glass_330ml_18pack</v>
@@ -27349,7 +27475,7 @@
       </c>
       <c r="I911"/>
     </row>
-    <row r="912" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" t="str">
         <f t="shared" si="0"/>
         <v>own_disp_multiples_pna_glass_330ml_24pack</v>
@@ -27445,7 +27571,7 @@
       </c>
       <c r="I915"/>
     </row>
-    <row r="916" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" t="str">
         <f t="shared" si="0"/>
         <v>own_disp_multiples_pna_can_330ml_6pack</v>
@@ -27469,7 +27595,7 @@
       </c>
       <c r="I916"/>
     </row>
-    <row r="917" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917" t="str">
         <f t="shared" si="0"/>
         <v>own_disp_multiples_pna_can_330ml_10pack</v>
@@ -28013,7 +28139,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939" t="str">
         <f t="shared" si="2"/>
         <v>m_ownfb_uk_vis</v>
@@ -28040,7 +28166,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940" t="str">
         <f t="shared" si="2"/>
         <v>m_ownig_uk_vis</v>
@@ -28067,7 +28193,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941" t="str">
         <f t="shared" si="2"/>
         <v>m_ownfb_global_vis</v>
@@ -28094,7 +28220,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A942" t="str">
         <f t="shared" si="2"/>
         <v>m_ownig_global_vis</v>
@@ -32939,7 +33065,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="1168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1168" t="str">
         <f t="shared" si="5"/>
         <v>covid_third_lockdown</v>
@@ -79442,7 +79568,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="2917" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2917" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2917" t="str">
         <f t="shared" si="34"/>
         <v>covid_third_lockdown_decay</v>
@@ -79471,7 +79597,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="2919" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2919" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2919" t="str">
         <f t="shared" ref="A2919:A2964" si="35">C2919&amp;E2919&amp;G2919</f>
         <v>cat_vol_multiples_glass_single</v>
@@ -79492,7 +79618,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2920" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2920" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2920" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_2_pack</v>
@@ -79513,7 +79639,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2921" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2921" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2921" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_3_pack</v>
@@ -79534,7 +79660,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2922" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2922" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2922" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_4_pack</v>
@@ -79555,7 +79681,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2923" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2923" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2923" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_6_pack</v>
@@ -79576,7 +79702,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2924" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2924" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2924" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_8_pack</v>
@@ -79597,7 +79723,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2925" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2925" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2925" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_10_pack</v>
@@ -79618,7 +79744,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2926" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2926" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2926" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_12_pack</v>
@@ -79639,7 +79765,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2927" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2927" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2927" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_15_pack</v>
@@ -79660,7 +79786,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2928" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2928" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2928" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_18_pack</v>
@@ -79681,7 +79807,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2929" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2929" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2929" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_20_pack</v>
@@ -79702,7 +79828,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2930" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2930" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2930" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_glass_24_pack</v>
@@ -79723,7 +79849,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2931" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2931" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2931" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_single</v>
@@ -79744,7 +79870,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2932" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2932" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2932" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_2_pack</v>
@@ -79765,7 +79891,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2933" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2933" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2933" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_4_pack</v>
@@ -79786,7 +79912,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2934" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2934" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2934" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_6_pack</v>
@@ -79807,7 +79933,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2935" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2935" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2935" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_8_pack</v>
@@ -79828,7 +79954,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2936" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2936" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2936" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_10_pack</v>
@@ -79849,7 +79975,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2937" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2937" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2937" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_12_pack</v>
@@ -79870,7 +79996,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2938" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2938" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2938" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_15_pack</v>
@@ -79891,7 +80017,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2939" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2939" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2939" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_18_pack</v>
@@ -79912,7 +80038,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2940" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2940" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2940" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_20_pack</v>
@@ -79933,7 +80059,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2941" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2941" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2941" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_multiples_can_24_pack</v>
@@ -79954,7 +80080,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2942" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2942" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2942" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_single</v>
@@ -79975,7 +80101,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2943" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2943" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2943" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_2_pack</v>
@@ -79996,7 +80122,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2944" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2944" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2944" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_3_pack</v>
@@ -80017,7 +80143,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2945" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2945" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2945" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_4_pack</v>
@@ -80038,7 +80164,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2946" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2946" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2946" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_5_pack</v>
@@ -80059,7 +80185,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2947" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2947" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2947" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_6_pack</v>
@@ -80080,7 +80206,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2948" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2948" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2948" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_10_pack</v>
@@ -80101,7 +80227,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2949" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2949" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2949" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_12_pack</v>
@@ -80122,7 +80248,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2950" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2950" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2950" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_15_pack</v>
@@ -80143,7 +80269,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2951" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2951" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2951" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_8_pack</v>
@@ -80164,7 +80290,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2952" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2952" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2952" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_18_pack</v>
@@ -80185,7 +80311,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2953" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2953" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2953" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_glass_20_pack</v>
@@ -80206,7 +80332,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2954" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2954" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2954" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_24_pack</v>
@@ -80227,7 +80353,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2955" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2955" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2955" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_single</v>
@@ -80248,7 +80374,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2956" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2956" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2956" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_4_pack</v>
@@ -80269,7 +80395,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2957" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2957" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2957" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_6_pack</v>
@@ -80290,7 +80416,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2958" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2958" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2958" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_10_pack</v>
@@ -80311,7 +80437,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2959" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2959" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2959" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_12_pack</v>
@@ -80332,7 +80458,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2960" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2960" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2960" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_15_pack</v>
@@ -80353,7 +80479,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2961" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2961" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2961" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_8_pack</v>
@@ -80374,7 +80500,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2962" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2962" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2962" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_18_pack</v>
@@ -80395,7 +80521,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2963" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2963" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2963" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_20_pack</v>
@@ -80416,7 +80542,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="2964" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2964" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2964" t="str">
         <f t="shared" si="35"/>
         <v>cat_vol_impulse_can_24_pack</v>
@@ -80437,160 +80563,596 @@
         <v>2141</v>
       </c>
     </row>
+    <row r="2965" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2965" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2965" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2966" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2966" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I2966" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2967" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2967" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2968" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2968" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2969" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2969" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2970" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2970" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2971" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2971" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2972" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2972" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2973" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2973" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2974" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2974" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2975" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2975" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I2975" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2976" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2976" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I2976" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2977" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2977" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2978" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2978" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2979" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2979" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I2979" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2980" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2980" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2981" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2981" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2982" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2982" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2983" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2983" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2984" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2984" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2985" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2985" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2986" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2986" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2987" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2987" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2988" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2988" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I2988" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2989" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2989" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2990" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2990" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2991" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2991" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I2991" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2992" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2992" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2993" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2993" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2994" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2994" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2995" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2995" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2996" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2996" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2997" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2997" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2998" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2998" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I2998" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2999" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2999" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I2999" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3000" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H3000" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3001" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>2239</v>
+      </c>
+      <c r="H3001" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3002" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H3002" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I3002" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3003" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H3003" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I3003" t="s">
+        <v>1791</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I2918" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
+  <autoFilter ref="A1:I3003" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
     <filterColumn colId="0">
       <filters>
-        <filter val="covid_third_lockdown"/>
-        <filter val="covid_third_lockdown_decay"/>
-        <filter val="m_ownfb_global_vis"/>
-        <filter val="m_ownfb_uk_vis"/>
-        <filter val="m_ownig_global_vis"/>
-        <filter val="m_ownig_uk_vis"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_330_ml_single"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_500_ml_single"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_btl_620_ml_single"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_can_330_ml_10_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_can_330_ml_6_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_can_330_ml_single"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_can_440_ml_4_pack"/>
-        <filter val="own_avp_impulse_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_330_ml_single"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_500_ml_single"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_btl_620_ml_single"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_can_330_ml_10_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_can_330_ml_6_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_can_440_ml_4_pack"/>
-        <filter val="own_avp_multiples_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_330_ml_single"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_500_ml_single"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_btl_620_ml_single"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_can_330_ml_10_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_can_330_ml_6_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_can_330_ml_single"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_can_440_ml_4_pack"/>
-        <filter val="own_bp_impulse_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_330_ml_single"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_500_ml_single"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_btl_620_ml_single"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_can_330_ml_10_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_can_330_ml_6_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_can_440_ml_4_pack"/>
-        <filter val="own_bp_multiples_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_330_ml_single"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_500_ml_single"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_btl_620_ml_single"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_can_330_ml_10_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_can_330_ml_6_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_can_330_ml_single"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_can_440_ml_4_pack"/>
-        <filter val="own_discount_impulse_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_330_ml_single"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_500_ml_single"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_btl_620_ml_single"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_can_330_ml_10_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_can_330_ml_6_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_can_440_ml_4_pack"/>
-        <filter val="own_discount_multiples_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
-        <filter val="own_disp_multiples_pna_can_330ml_10pack"/>
-        <filter val="own_disp_multiples_pna_can_330ml_6pack"/>
-        <filter val="own_disp_multiples_pna_glass_330ml_18pack"/>
-        <filter val="own_disp_multiples_pna_glass_330ml_24pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_330_ml_single"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_500_ml_single"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_btl_620_ml_single"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_can_330_ml_10_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_can_330_ml_6_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_can_330_ml_single"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_can_440_ml_4_pack"/>
-        <filter val="own_dist_impulse_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_12_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_4_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_0_0_btl_330_ml_single"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_250_ml_4_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_10_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_12_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_18_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_24_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_4_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_330_ml_single"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_500_ml_single"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_btl_620_ml_single"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_can_330_ml_10_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_can_330_ml_6_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_can_440_ml_4_pack"/>
-        <filter val="own_dist_multiples_peroni_nastro_azzurro_stile_capri_btl_330_ml_10_pack"/>
-        <filter val="own_feat_multiples_pna_can_330ml_10pack"/>
-        <filter val="own_feat_multiples_pna_can_330ml_6pack"/>
-        <filter val="own_feat_multiples_pna_glass_330ml_18pack"/>
-        <filter val="own_feat_multiples_pna_glass_330ml_24pack"/>
-        <filter val="own_featdisp_multiples_pna_can_330ml_10pack"/>
-        <filter val="own_featdisp_multiples_pna_can_330ml_6pack"/>
-        <filter val="own_featdisp_multiples_pna_glass_330ml_18pack"/>
-        <filter val="own_featdisp_multiples_pna_glass_330ml_24pack"/>
+        <filter val="cat_smooth_vol_impulse_can_1_10pack"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -80601,15 +81163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2B45C0EA743584A8108406922405CD9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28eea7f25acf351aeb308c66c2a0cc34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f859e2c-e6b3-43fd-84f3-2e79f1815da7" xmlns:ns3="af2a5c73-a52b-4877-934f-731a7896a6a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c229cfe8c0dd97038f86cb311aeef9c" ns2:_="" ns3:_="">
     <xsd:import namespace="3f859e2c-e6b3-43fd-84f3-2e79f1815da7"/>
@@ -80786,6 +81339,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -80793,14 +81355,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BDD481-501C-4200-9B28-7D89CE3D9024}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -80819,6 +81373,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
   <ds:schemaRefs>

--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2034" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0F135B1-F65F-4A53-8C38-D8545112FCA7}"/>
+  <xr:revisionPtr revIDLastSave="2042" documentId="8_{89E4EC9A-90DE-43F4-9AC7-CA845E774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C5ADCDB-86F7-4249-A566-5330BB96F765}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{76ACBFB2-FDB9-4F29-83E0-3CEBBBD05A87}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="taxonomy" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">taxonomy!$A$1:$I$3013</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">taxonomy!$A$1:$I$3018</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18991" uniqueCount="2275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18998" uniqueCount="2276">
   <si>
     <t>variable_name</t>
   </si>
@@ -6923,6 +6923,9 @@
   </si>
   <si>
     <t>Waitrose</t>
+  </si>
+  <si>
+    <t>cat_smooth_vol_impulse_glass_medium_pack_v1</t>
   </si>
 </sst>
 </file>
@@ -7403,11 +7406,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}">
-  <dimension ref="A1:I3018"/>
+  <dimension ref="A1:I3019"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2974" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3018" sqref="E3018"/>
+      <pane ySplit="1" topLeftCell="A2982" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3024" sqref="C3024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24442,7 +24445,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="769" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1208</v>
       </c>
@@ -24464,7 +24467,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="770" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1211</v>
       </c>
@@ -24486,7 +24489,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="771" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1214</v>
       </c>
@@ -24508,7 +24511,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="772" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1217</v>
       </c>
@@ -24530,7 +24533,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="773" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1220</v>
       </c>
@@ -24552,7 +24555,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="774" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1223</v>
       </c>
@@ -24574,7 +24577,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="775" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1226</v>
       </c>
@@ -24596,7 +24599,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="776" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1229</v>
       </c>
@@ -24618,7 +24621,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="777" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1232</v>
       </c>
@@ -24640,7 +24643,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="778" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1235</v>
       </c>
@@ -24662,7 +24665,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="779" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1238</v>
       </c>
@@ -24684,7 +24687,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="780" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1241</v>
       </c>
@@ -24706,7 +24709,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="781" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1243</v>
       </c>
@@ -24725,10 +24728,13 @@
       <c r="F781"/>
       <c r="G781"/>
       <c r="H781" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="782" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+      <c r="I781" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1244</v>
       </c>
@@ -24750,7 +24756,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="783" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1245</v>
       </c>
@@ -24772,7 +24778,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="784" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1246</v>
       </c>
@@ -28998,6 +29004,9 @@
       <c r="H969" t="s">
         <v>1447</v>
       </c>
+      <c r="I969" t="s">
+        <v>1886</v>
+      </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A970" t="str">
@@ -81557,8 +81566,25 @@
         <v>1886</v>
       </c>
     </row>
+    <row r="3019" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3019" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H3019" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I3019" t="s">
+        <v>1886</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I3013" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}"/>
+  <autoFilter ref="A1:I3018" xr:uid="{538DC1F5-E4A4-461E-8C87-E865C98C4EFC}"/>
   <conditionalFormatting sqref="A2:A3006">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
@@ -81581,6 +81607,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2B45C0EA743584A8108406922405CD9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28eea7f25acf351aeb308c66c2a0cc34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f859e2c-e6b3-43fd-84f3-2e79f1815da7" xmlns:ns3="af2a5c73-a52b-4877-934f-731a7896a6a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c229cfe8c0dd97038f86cb311aeef9c" ns2:_="" ns3:_="">
     <xsd:import namespace="3f859e2c-e6b3-43fd-84f3-2e79f1815da7"/>
@@ -81757,12 +81789,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5E19E5-20AC-4670-9F44-7E00AC29618F}">
   <ds:schemaRefs>
@@ -81772,6 +81798,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BDD481-501C-4200-9B28-7D89CE3D9024}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -81788,13 +81823,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C04BD6B-3FF1-42AA-AC81-EB54DE3A1588}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>